--- a/fixtures/Ciclid Brain and Social Data with Legend.xlsx
+++ b/fixtures/Ciclid Brain and Social Data with Legend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21721"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="49680" windowHeight="28360" tabRatio="890" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="24640" windowHeight="15620" tabRatio="890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Huber et al., 1997" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7220" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7219" uniqueCount="684">
   <si>
     <t>Fatlipped Insectivore</t>
   </si>
@@ -2602,7 +2602,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2620,7 +2620,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="39" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="39" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="39" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="40" applyFont="1"/>
@@ -2659,7 +2658,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2711,6 +2709,9 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2726,9 +2727,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2981,11 +2979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="582361464"/>
-        <c:axId val="142611144"/>
+        <c:axId val="579567880"/>
+        <c:axId val="579573848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="582361464"/>
+        <c:axId val="579567880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3059,12 +3057,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142611144"/>
+        <c:crossAx val="579573848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142611144"/>
+        <c:axId val="579573848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3148,7 +3146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582361464"/>
+        <c:crossAx val="579567880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3272,13 +3270,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="List1" displayName="List1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="List1" displayName="List1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:I9"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Depth min."/>
     <tableColumn id="3" name="Depth max."/>
-    <tableColumn id="4" name="Habitat" dataDxfId="1"/>
+    <tableColumn id="4" name="Habitat" dataDxfId="0"/>
     <tableColumn id="5" name="Rugosity"/>
     <tableColumn id="6" name="Ave. Rock Size"/>
     <tableColumn id="7" name="Ave Rock Size (no NA)"/>
@@ -21003,11 +21001,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:70">
       <c r="A1" t="s">
@@ -28927,13 +28930,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR292"/>
+  <dimension ref="A1:AR283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D269" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR2" sqref="AR2"/>
+      <selection pane="bottomRight" activeCell="A284" sqref="A284:XFD293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -32979,8 +32982,8 @@
       <c r="AO53" s="11">
         <v>14.5</v>
       </c>
-      <c r="AP53" s="18"/>
-      <c r="AQ53" s="39">
+      <c r="AP53" s="17"/>
+      <c r="AQ53" s="38">
         <v>-236.5</v>
       </c>
     </row>
@@ -48354,10 +48357,10 @@
       <c r="A264" s="15">
         <v>216</v>
       </c>
-      <c r="B264" s="19" t="s">
+      <c r="B264" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="C264" s="19" t="s">
+      <c r="C264" s="18" t="s">
         <v>416</v>
       </c>
       <c r="D264" s="15" t="s">
@@ -48429,10 +48432,10 @@
       <c r="A265" s="15">
         <v>217</v>
       </c>
-      <c r="B265" s="19" t="s">
+      <c r="B265" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="C265" s="19" t="s">
+      <c r="C265" s="18" t="s">
         <v>680</v>
       </c>
       <c r="D265" s="13" t="s">
@@ -48531,10 +48534,10 @@
       <c r="A266" s="15">
         <v>218</v>
       </c>
-      <c r="B266" s="19" t="s">
+      <c r="B266" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C266" s="19" t="s">
+      <c r="C266" s="18" t="s">
         <v>628</v>
       </c>
       <c r="D266" s="13" t="s">
@@ -48629,10 +48632,10 @@
       <c r="A267" s="15">
         <v>219</v>
       </c>
-      <c r="B267" s="19" t="s">
+      <c r="B267" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C267" s="19" t="s">
+      <c r="C267" s="18" t="s">
         <v>627</v>
       </c>
       <c r="D267" s="13" t="s">
@@ -48717,10 +48720,10 @@
       <c r="A268" s="15">
         <v>220</v>
       </c>
-      <c r="B268" s="19" t="s">
+      <c r="B268" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C268" s="19" t="s">
+      <c r="C268" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D268" s="13" t="s">
@@ -48833,10 +48836,10 @@
       <c r="A269" s="15">
         <v>221</v>
       </c>
-      <c r="B269" s="19" t="s">
+      <c r="B269" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C269" s="19" t="s">
+      <c r="C269" s="18" t="s">
         <v>113</v>
       </c>
       <c r="D269" s="13" t="s">
@@ -48939,10 +48942,10 @@
       <c r="A270" s="15">
         <v>222</v>
       </c>
-      <c r="B270" s="19" t="s">
+      <c r="B270" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C270" s="19" t="s">
+      <c r="C270" s="18" t="s">
         <v>31</v>
       </c>
       <c r="D270" s="13" t="s">
@@ -49045,10 +49048,10 @@
       <c r="A271" s="15">
         <v>223</v>
       </c>
-      <c r="B271" s="19" t="s">
+      <c r="B271" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C271" s="19" t="s">
+      <c r="C271" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D271" s="13" t="s">
@@ -49133,10 +49136,10 @@
       <c r="A272" s="15">
         <v>224</v>
       </c>
-      <c r="B272" s="19" t="s">
+      <c r="B272" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C272" s="19" t="s">
+      <c r="C272" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D272" s="13" t="s">
@@ -49235,10 +49238,10 @@
       <c r="A273" s="15">
         <v>225</v>
       </c>
-      <c r="B273" s="19" t="s">
+      <c r="B273" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C273" s="19" t="s">
+      <c r="C273" s="18" t="s">
         <v>324</v>
       </c>
       <c r="D273" s="15" t="s">
@@ -49336,10 +49339,10 @@
       <c r="A274" s="15">
         <v>226</v>
       </c>
-      <c r="B274" s="19" t="s">
+      <c r="B274" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C274" s="19" t="s">
+      <c r="C274" s="18" t="s">
         <v>76</v>
       </c>
       <c r="D274" s="13" t="s">
@@ -49430,10 +49433,10 @@
       <c r="A275" s="15">
         <v>227</v>
       </c>
-      <c r="B275" s="19" t="s">
+      <c r="B275" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C275" s="19" t="s">
+      <c r="C275" s="18" t="s">
         <v>155</v>
       </c>
       <c r="D275" s="13" t="s">
@@ -49523,10 +49526,10 @@
       <c r="A276" s="13">
         <v>228</v>
       </c>
-      <c r="B276" s="19" t="s">
+      <c r="B276" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C276" s="19" t="s">
+      <c r="C276" s="18" t="s">
         <v>324</v>
       </c>
       <c r="D276" s="13" t="s">
@@ -49597,10 +49600,10 @@
       <c r="A277" s="13">
         <v>229</v>
       </c>
-      <c r="B277" s="19" t="s">
+      <c r="B277" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C277" s="19" t="s">
+      <c r="C277" s="18" t="s">
         <v>631</v>
       </c>
       <c r="D277" s="13" t="s">
@@ -49669,10 +49672,10 @@
       <c r="A278" s="13">
         <v>230</v>
       </c>
-      <c r="B278" s="19" t="s">
+      <c r="B278" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="C278" s="19" t="s">
+      <c r="C278" s="18" t="s">
         <v>680</v>
       </c>
       <c r="D278" s="13" t="s">
@@ -49733,10 +49736,10 @@
       <c r="A279" s="13">
         <v>231</v>
       </c>
-      <c r="B279" s="19" t="s">
+      <c r="B279" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C279" s="19" t="s">
+      <c r="C279" s="18" t="s">
         <v>113</v>
       </c>
       <c r="D279" s="13" t="s">
@@ -49802,10 +49805,10 @@
       <c r="A280" s="13">
         <v>232</v>
       </c>
-      <c r="B280" s="19" t="s">
+      <c r="B280" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C280" s="19" t="s">
+      <c r="C280" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D280" s="13" t="s">
@@ -49857,10 +49860,10 @@
       <c r="A281" s="13">
         <v>233</v>
       </c>
-      <c r="B281" s="19" t="s">
+      <c r="B281" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C281" s="19" t="s">
+      <c r="C281" s="18" t="s">
         <v>324</v>
       </c>
       <c r="D281" s="13" t="s">
@@ -49937,10 +49940,10 @@
       <c r="A282" s="13">
         <v>234</v>
       </c>
-      <c r="B282" s="19" t="s">
+      <c r="B282" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C282" s="19" t="s">
+      <c r="C282" s="18" t="s">
         <v>368</v>
       </c>
       <c r="D282" s="13" t="s">
@@ -49994,10 +49997,10 @@
       <c r="A283" s="13">
         <v>235</v>
       </c>
-      <c r="B283" s="19" t="s">
+      <c r="B283" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C283" s="19" t="s">
+      <c r="C283" s="18" t="s">
         <v>76</v>
       </c>
       <c r="D283" s="13" t="s">
@@ -50046,34 +50049,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="284" spans="1:44">
-      <c r="B284" s="19"/>
-      <c r="C284" s="19"/>
-    </row>
-    <row r="288" spans="1:44">
-      <c r="I288" s="17"/>
-      <c r="AB288" s="44"/>
-      <c r="AC288" s="44"/>
-      <c r="AF288" s="15" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="289" spans="9:9">
-      <c r="I289" s="17"/>
-    </row>
-    <row r="290" spans="9:9">
-      <c r="I290" s="17"/>
-    </row>
-    <row r="291" spans="9:9">
-      <c r="I291" s="17"/>
-    </row>
-    <row r="292" spans="9:9">
-      <c r="I292" s="17"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="AB288:AC288"/>
-  </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -50111,48 +50087,48 @@
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="31"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>0.36748289159971198</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>0.13504367561848565</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="28">
         <v>7.7379920659718035E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <v>4.943104744247276E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>17</v>
       </c>
     </row>
@@ -50162,156 +50138,156 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="28">
         <v>1</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>5.7223044077666719E-5</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>5.7223044077666719E-5</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <v>2.3419160912266017</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="28">
         <v>0.14674851626878427</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="28">
         <v>15</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>3.6651426768899892E-4</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>2.4434284512599929E-5</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>16</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="29">
         <v>4.2373731176666564E-4</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1"/>
     <row r="16" spans="1:9">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="28">
         <v>2.6495292872858477E-2</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <v>1.2689981924922936E-2</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>2.0878905131316312</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>5.4276811747028406E-2</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="28">
         <v>-5.5276320875474391E-4</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <v>5.3543348954471701E-2</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="28">
         <v>-5.5276320875474391E-4</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <v>5.3543348954471701E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1">
-      <c r="A18" s="30">
+      <c r="A18" s="29">
         <v>1.708111111</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>-1.5776091487263121E-2</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="29">
         <v>1.0308933801158212E-2</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="29">
         <v>-1.5303320199311661</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <v>0.1467485162687836</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="29">
         <v>-3.7749063651055924E-2</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="29">
         <v>6.1968806765296813E-3</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="29">
         <v>-3.7749063651055924E-2</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="29">
         <v>6.1968806765296813E-3</v>
       </c>
     </row>
@@ -50328,48 +50304,48 @@
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1"/>
     <row r="24" spans="1:9">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="31"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="28">
         <v>0.37346916107889128</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <v>0.13947921427697083</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="28">
         <v>8.2111161895435547E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="28">
         <v>4.9304142115486624E-3</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="29">
         <v>17</v>
       </c>
     </row>
@@ -50379,171 +50355,171 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="28">
         <v>1</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="28">
         <v>5.9102547305050351E-5</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="28">
         <v>5.9102547305050351E-5</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="28">
         <v>2.431304680684335</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="28">
         <v>0.13977967553595527</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="28">
         <v>15</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="28">
         <v>3.6463476446161529E-4</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="28">
         <v>2.430898429744102E-5</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="29">
         <v>16</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="29">
         <v>4.2373731176666564E-4</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1"/>
     <row r="37" spans="1:9">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G37" s="31" t="s">
+      <c r="G37" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I37" s="31" t="s">
+      <c r="I37" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B38" s="28">
         <v>1.0210651025179452E-2</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="28">
         <v>2.2917291577505446E-3</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="28">
         <v>4.4554353164497655</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="28">
         <v>4.626600982297132E-4</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="28">
         <v>5.3259459759970118E-3</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="28">
         <v>1.5095356074361892E-2</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="28">
         <v>5.3259459759970118E-3</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="28">
         <v>1.5095356074361892E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1">
-      <c r="A39" s="30">
+      <c r="A39" s="29">
         <v>0.72607473</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="29">
         <v>-2.9789569023525395E-3</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="29">
         <v>1.9104889365525769E-3</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="29">
         <v>-1.5592641471810786</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="29">
         <v>0.13977967553595527</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="29">
         <v>-7.0510676590815734E-3</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="29">
         <v>1.0931538543764944E-3</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="29">
         <v>-7.0510676590815734E-3</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="29">
         <v>1.0931538543764944E-3</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="40"/>
+      <c r="B43" s="39"/>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1"/>
     <row r="45" spans="1:9">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="41"/>
+      <c r="B45" s="40"/>
       <c r="C45" t="s">
         <v>238</v>
       </c>
@@ -50584,10 +50560,10 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="33">
+      <c r="B50" s="32">
         <v>17</v>
       </c>
     </row>
@@ -50597,20 +50573,20 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34" t="s">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="F53" s="34" t="s">
+      <c r="F53" s="33" t="s">
         <v>226</v>
       </c>
     </row>
@@ -50649,44 +50625,44 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="B56" s="33">
+      <c r="B56" s="32">
         <v>16</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="32">
         <v>4.2373731176666602E-4</v>
       </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
     </row>
     <row r="57" spans="1:9" ht="15" thickBot="1"/>
     <row r="58" spans="1:9">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34" t="s">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="F58" s="34" t="s">
+      <c r="F58" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="G58" s="34" t="s">
+      <c r="G58" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="H58" s="34" t="s">
+      <c r="H58" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="I58" s="34" t="s">
+      <c r="I58" s="33" t="s">
         <v>233</v>
       </c>
     </row>
@@ -50720,31 +50696,31 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1">
-      <c r="A60" s="33">
+      <c r="A60" s="32">
         <v>2</v>
       </c>
-      <c r="B60" s="33">
+      <c r="B60" s="32">
         <v>-4.7471178881662102E-3</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="32">
         <v>2.00751189871807E-3</v>
       </c>
-      <c r="D60" s="33">
+      <c r="D60" s="32">
         <v>-2.3646773357595321</v>
       </c>
-      <c r="E60" s="33">
+      <c r="E60" s="32">
         <v>3.1952603219047998E-2</v>
       </c>
-      <c r="F60" s="33">
+      <c r="F60" s="32">
         <v>-9.0260281925527899E-3</v>
       </c>
-      <c r="G60" s="33">
+      <c r="G60" s="32">
         <v>-4.6820758377962501E-4</v>
       </c>
-      <c r="H60" s="33">
+      <c r="H60" s="32">
         <v>-9.0260281925527899E-3</v>
       </c>
-      <c r="I60" s="33">
+      <c r="I60" s="32">
         <v>-4.6820758377962501E-4</v>
       </c>
     </row>
@@ -50761,48 +50737,48 @@
     </row>
     <row r="66" spans="1:9" ht="15" thickBot="1"/>
     <row r="67" spans="1:9">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="32"/>
+      <c r="B67" s="31"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="29">
+      <c r="B68" s="28">
         <v>1.337369542377816E-3</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="29">
+      <c r="B69" s="28">
         <v>1.7885572928798487E-6</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="29">
+      <c r="B70" s="28">
         <v>-6.6664758872220925E-2</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="29">
+      <c r="B71" s="28">
         <v>3.0396135484768347E-3</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" thickBot="1">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="30">
+      <c r="B72" s="29">
         <v>17</v>
       </c>
     </row>
@@ -50812,156 +50788,156 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31" t="s">
+      <c r="A75" s="30"/>
+      <c r="B75" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="E75" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F75" s="31" t="s">
+      <c r="F75" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="29">
+      <c r="B76" s="28">
         <v>1</v>
       </c>
-      <c r="C76" s="29">
+      <c r="C76" s="28">
         <v>2.4787437692143886E-10</v>
       </c>
-      <c r="D76" s="29">
+      <c r="D76" s="28">
         <v>2.4787437692143886E-10</v>
       </c>
-      <c r="E76" s="29">
+      <c r="E76" s="28">
         <v>2.6828407377341406E-5</v>
       </c>
-      <c r="F76" s="29">
+      <c r="F76" s="28">
         <v>0.99593554304659959</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="29" t="s">
+      <c r="A77" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="29">
+      <c r="B77" s="28">
         <v>15</v>
       </c>
-      <c r="C77" s="29">
+      <c r="C77" s="28">
         <v>1.3858875786125903E-4</v>
       </c>
-      <c r="D77" s="29">
+      <c r="D77" s="28">
         <v>9.2392505240839345E-6</v>
       </c>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
     </row>
     <row r="78" spans="1:9" ht="15" thickBot="1">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B78" s="30">
+      <c r="B78" s="29">
         <v>16</v>
       </c>
-      <c r="C78" s="30">
+      <c r="C78" s="29">
         <v>1.3858900573563595E-4</v>
       </c>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1"/>
     <row r="80" spans="1:9">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31" t="s">
+      <c r="A80" s="30"/>
+      <c r="B80" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E80" s="31" t="s">
+      <c r="E80" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F80" s="31" t="s">
+      <c r="F80" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G80" s="31" t="s">
+      <c r="G80" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H80" s="31" t="s">
+      <c r="H80" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I80" s="31" t="s">
+      <c r="I80" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B81" s="29">
+      <c r="B81" s="28">
         <v>7.5686782072182691E-3</v>
       </c>
-      <c r="C81" s="29">
+      <c r="C81" s="28">
         <v>1.4128571552916081E-3</v>
       </c>
-      <c r="D81" s="29">
+      <c r="D81" s="28">
         <v>5.3570017173152396</v>
       </c>
-      <c r="E81" s="29">
+      <c r="E81" s="28">
         <v>7.992468201891357E-5</v>
       </c>
-      <c r="F81" s="29">
+      <c r="F81" s="28">
         <v>4.5572444795955241E-3</v>
       </c>
-      <c r="G81" s="29">
+      <c r="G81" s="28">
         <v>1.0580111934841013E-2</v>
       </c>
-      <c r="H81" s="29">
+      <c r="H81" s="28">
         <v>4.5572444795955241E-3</v>
       </c>
-      <c r="I81" s="29">
+      <c r="I81" s="28">
         <v>1.0580111934841013E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1">
-      <c r="A82" s="30">
+      <c r="A82" s="29">
         <v>0.72607473</v>
       </c>
-      <c r="B82" s="30">
+      <c r="B82" s="29">
         <v>-6.1006616378474492E-6</v>
       </c>
-      <c r="C82" s="30">
+      <c r="C82" s="29">
         <v>1.1778215392447249E-3</v>
       </c>
-      <c r="D82" s="30">
+      <c r="D82" s="29">
         <v>-5.1796145974367927E-3</v>
       </c>
-      <c r="E82" s="30">
+      <c r="E82" s="29">
         <v>0.99593554304647347</v>
       </c>
-      <c r="F82" s="30">
+      <c r="F82" s="29">
         <v>-2.5165678345701521E-3</v>
       </c>
-      <c r="G82" s="30">
+      <c r="G82" s="29">
         <v>2.5043665112944569E-3</v>
       </c>
-      <c r="H82" s="30">
+      <c r="H82" s="29">
         <v>-2.5165678345701521E-3</v>
       </c>
-      <c r="I82" s="30">
+      <c r="I82" s="29">
         <v>2.5043665112944569E-3</v>
       </c>
     </row>
@@ -50972,10 +50948,10 @@
     </row>
     <row r="88" spans="1:9" ht="15" thickBot="1"/>
     <row r="89" spans="1:9">
-      <c r="A89" s="32" t="s">
+      <c r="A89" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B89" s="32"/>
+      <c r="B89" s="31"/>
       <c r="C89" t="s">
         <v>242</v>
       </c>
@@ -50984,42 +50960,42 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B90" s="29">
+      <c r="B90" s="28">
         <v>6.8539679099659773E-2</v>
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B91" s="29">
+      <c r="B91" s="28">
         <v>4.6976876110843384E-3</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="29" t="s">
+      <c r="A92" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="29">
+      <c r="B92" s="28">
         <v>-6.1655799881510036E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B93" s="29">
+      <c r="B93" s="28">
         <v>3.0324682782661735E-3</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15" thickBot="1">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B94" s="30">
+      <c r="B94" s="29">
         <v>17</v>
       </c>
     </row>
@@ -51029,156 +51005,156 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="31"/>
-      <c r="B97" s="31" t="s">
+      <c r="A97" s="30"/>
+      <c r="B97" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C97" s="31" t="s">
+      <c r="C97" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D97" s="31" t="s">
+      <c r="D97" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E97" s="31" t="s">
+      <c r="E97" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F97" s="31" t="s">
+      <c r="F97" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="29" t="s">
+      <c r="A98" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B98" s="29">
+      <c r="B98" s="28">
         <v>1</v>
       </c>
-      <c r="C98" s="29">
+      <c r="C98" s="28">
         <v>6.5104785527679327E-7</v>
       </c>
-      <c r="D98" s="29">
+      <c r="D98" s="28">
         <v>6.5104785527679327E-7</v>
       </c>
-      <c r="E98" s="29">
+      <c r="E98" s="28">
         <v>7.0797900586742193E-2</v>
       </c>
-      <c r="F98" s="29">
+      <c r="F98" s="28">
         <v>0.79380114428476622</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="29" t="s">
+      <c r="A99" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B99" s="29">
+      <c r="B99" s="28">
         <v>15</v>
       </c>
-      <c r="C99" s="29">
+      <c r="C99" s="28">
         <v>1.3793795788035916E-4</v>
       </c>
-      <c r="D99" s="29">
+      <c r="D99" s="28">
         <v>9.1958638586906108E-6</v>
       </c>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1">
-      <c r="A100" s="30" t="s">
+      <c r="A100" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B100" s="30">
+      <c r="B100" s="29">
         <v>16</v>
       </c>
-      <c r="C100" s="30">
+      <c r="C100" s="29">
         <v>1.3858900573563595E-4</v>
       </c>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
     </row>
     <row r="101" spans="1:9" ht="15" thickBot="1"/>
     <row r="102" spans="1:9">
-      <c r="A102" s="31"/>
-      <c r="B102" s="31" t="s">
+      <c r="A102" s="30"/>
+      <c r="B102" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C102" s="31" t="s">
+      <c r="C102" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D102" s="31" t="s">
+      <c r="D102" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E102" s="31" t="s">
+      <c r="E102" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F102" s="31" t="s">
+      <c r="F102" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G102" s="31" t="s">
+      <c r="G102" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H102" s="31" t="s">
+      <c r="H102" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I102" s="31" t="s">
+      <c r="I102" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="29" t="s">
+      <c r="A103" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B103" s="29">
+      <c r="B103" s="28">
         <v>5.5002826935333874E-3</v>
       </c>
-      <c r="C103" s="29">
+      <c r="C103" s="28">
         <v>7.7849792043926955E-3</v>
       </c>
-      <c r="D103" s="29">
+      <c r="D103" s="28">
         <v>0.70652503354534824</v>
       </c>
-      <c r="E103" s="29">
+      <c r="E103" s="28">
         <v>0.49069172371860414</v>
       </c>
-      <c r="F103" s="29">
+      <c r="F103" s="28">
         <v>-1.1093007616916369E-2</v>
       </c>
-      <c r="G103" s="29">
+      <c r="G103" s="28">
         <v>2.2093573003983145E-2</v>
       </c>
-      <c r="H103" s="29">
+      <c r="H103" s="28">
         <v>-1.1093007616916369E-2</v>
       </c>
-      <c r="I103" s="29">
+      <c r="I103" s="28">
         <v>2.2093573003983145E-2</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15" thickBot="1">
-      <c r="A104" s="30">
+      <c r="A104" s="29">
         <v>1.708111111</v>
       </c>
-      <c r="B104" s="30">
+      <c r="B104" s="29">
         <v>1.6827530788810052E-3</v>
       </c>
-      <c r="C104" s="30">
+      <c r="C104" s="29">
         <v>6.3242671058386874E-3</v>
       </c>
-      <c r="D104" s="30">
+      <c r="D104" s="29">
         <v>0.26607874884466132</v>
       </c>
-      <c r="E104" s="30">
+      <c r="E104" s="29">
         <v>0.79380114428476878</v>
       </c>
-      <c r="F104" s="30">
+      <c r="F104" s="29">
         <v>-1.1797103107349565E-2</v>
       </c>
-      <c r="G104" s="30">
+      <c r="G104" s="29">
         <v>1.5162609265111574E-2</v>
       </c>
-      <c r="H104" s="30">
+      <c r="H104" s="29">
         <v>-1.1797103107349565E-2</v>
       </c>
-      <c r="I104" s="30">
+      <c r="I104" s="29">
         <v>1.5162609265111574E-2</v>
       </c>
     </row>
@@ -51195,48 +51171,48 @@
     </row>
     <row r="108" spans="1:9" ht="15" thickBot="1"/>
     <row r="109" spans="1:9">
-      <c r="A109" s="32" t="s">
+      <c r="A109" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B109" s="32"/>
+      <c r="B109" s="31"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="29" t="s">
+      <c r="A110" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B110" s="29">
+      <c r="B110" s="28">
         <v>0.14083631230082538</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="29" t="s">
+      <c r="A111" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B111" s="29">
+      <c r="B111" s="28">
         <v>1.983486686249562E-2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="29" t="s">
+      <c r="A112" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B112" s="29">
+      <c r="B112" s="28">
         <v>-4.5509475346671338E-2</v>
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="29" t="s">
+      <c r="A113" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B113" s="29">
+      <c r="B113" s="28">
         <v>3.0093200921832157E-3</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15" thickBot="1">
-      <c r="A114" s="30" t="s">
+      <c r="A114" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="30">
+      <c r="B114" s="29">
         <v>17</v>
       </c>
     </row>
@@ -51246,156 +51222,156 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="31"/>
-      <c r="B117" s="31" t="s">
+      <c r="A117" s="30"/>
+      <c r="B117" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C117" s="31" t="s">
+      <c r="C117" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D117" s="31" t="s">
+      <c r="D117" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E117" s="31" t="s">
+      <c r="E117" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F117" s="31" t="s">
+      <c r="F117" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="29" t="s">
+      <c r="A118" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B118" s="29">
+      <c r="B118" s="28">
         <v>1</v>
       </c>
-      <c r="C118" s="29">
+      <c r="C118" s="28">
         <v>2.7488944773719807E-6</v>
       </c>
-      <c r="D118" s="29">
+      <c r="D118" s="28">
         <v>2.7488944773719807E-6</v>
       </c>
-      <c r="E118" s="29">
+      <c r="E118" s="28">
         <v>0.30354375286240232</v>
       </c>
-      <c r="F118" s="29">
+      <c r="F118" s="28">
         <v>0.58978183325680988</v>
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="29" t="s">
+      <c r="A119" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B119" s="29">
+      <c r="B119" s="28">
         <v>15</v>
       </c>
-      <c r="C119" s="29">
+      <c r="C119" s="28">
         <v>1.3584011125826397E-4</v>
       </c>
-      <c r="D119" s="29">
+      <c r="D119" s="28">
         <v>9.056007417217598E-6</v>
       </c>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28"/>
     </row>
     <row r="120" spans="1:9" ht="15" thickBot="1">
-      <c r="A120" s="30" t="s">
+      <c r="A120" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B120" s="30">
+      <c r="B120" s="29">
         <v>16</v>
       </c>
-      <c r="C120" s="30">
+      <c r="C120" s="29">
         <v>1.3858900573563595E-4</v>
       </c>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
-      <c r="F120" s="30"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1"/>
     <row r="122" spans="1:9">
-      <c r="A122" s="31"/>
-      <c r="B122" s="31" t="s">
+      <c r="A122" s="30"/>
+      <c r="B122" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C122" s="31" t="s">
+      <c r="C122" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D122" s="31" t="s">
+      <c r="D122" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E122" s="31" t="s">
+      <c r="E122" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F122" s="31" t="s">
+      <c r="F122" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G122" s="31" t="s">
+      <c r="G122" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H122" s="31" t="s">
+      <c r="H122" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I122" s="31" t="s">
+      <c r="I122" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="29" t="s">
+      <c r="A123" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B123" s="29">
+      <c r="B123" s="28">
         <v>9.1321222474395319E-3</v>
       </c>
-      <c r="C123" s="29">
+      <c r="C123" s="28">
         <v>2.9410675813265185E-3</v>
       </c>
-      <c r="D123" s="29">
+      <c r="D123" s="28">
         <v>3.1050365198750867</v>
       </c>
-      <c r="E123" s="29">
+      <c r="E123" s="28">
         <v>7.2423321392713269E-3</v>
       </c>
-      <c r="F123" s="29">
+      <c r="F123" s="28">
         <v>2.8633851168295274E-3</v>
       </c>
-      <c r="G123" s="29">
+      <c r="G123" s="28">
         <v>1.5400859378049536E-2</v>
       </c>
-      <c r="H123" s="29">
+      <c r="H123" s="28">
         <v>2.8633851168295274E-3</v>
       </c>
-      <c r="I123" s="29">
+      <c r="I123" s="28">
         <v>1.5400859378049536E-2</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" thickBot="1">
-      <c r="A124" s="30">
+      <c r="A124" s="29">
         <v>2</v>
       </c>
-      <c r="B124" s="30">
+      <c r="B124" s="29">
         <v>-7.3372767209607887E-4</v>
       </c>
-      <c r="C124" s="30">
+      <c r="C124" s="29">
         <v>1.3317547330058011E-3</v>
       </c>
-      <c r="D124" s="30">
+      <c r="D124" s="29">
         <v>-0.55094804915019047</v>
       </c>
-      <c r="E124" s="30">
+      <c r="E124" s="29">
         <v>0.58978183325681077</v>
       </c>
-      <c r="F124" s="30">
+      <c r="F124" s="29">
         <v>-3.5722956793955455E-3</v>
       </c>
-      <c r="G124" s="30">
+      <c r="G124" s="29">
         <v>2.1048403352033878E-3</v>
       </c>
-      <c r="H124" s="30">
+      <c r="H124" s="29">
         <v>-3.5722956793955455E-3</v>
       </c>
-      <c r="I124" s="30">
+      <c r="I124" s="29">
         <v>2.1048403352033878E-3</v>
       </c>
     </row>
@@ -51412,48 +51388,48 @@
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1"/>
     <row r="130" spans="1:9">
-      <c r="A130" s="32" t="s">
+      <c r="A130" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B130" s="32"/>
+      <c r="B130" s="31"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B131" s="29">
+      <c r="B131" s="28">
         <v>5.1127339382791626E-2</v>
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="29" t="s">
+      <c r="A132" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B132" s="29">
+      <c r="B132" s="28">
         <v>2.6140048323631559E-3</v>
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="29" t="s">
+      <c r="A133" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B133" s="29">
+      <c r="B133" s="28">
         <v>-6.3878394845479303E-2</v>
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="29" t="s">
+      <c r="A134" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B134" s="29">
+      <c r="B134" s="28">
         <v>3.035640881317931E-3</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15" thickBot="1">
-      <c r="A135" s="30" t="s">
+      <c r="A135" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B135" s="30">
+      <c r="B135" s="29">
         <v>17</v>
       </c>
     </row>
@@ -51463,156 +51439,156 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="31"/>
-      <c r="B138" s="31" t="s">
+      <c r="A138" s="30"/>
+      <c r="B138" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C138" s="31" t="s">
+      <c r="C138" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D138" s="31" t="s">
+      <c r="D138" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E138" s="31" t="s">
+      <c r="E138" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F138" s="31" t="s">
+      <c r="F138" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="29" t="s">
+      <c r="A139" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B139" s="29">
+      <c r="B139" s="28">
         <v>1</v>
       </c>
-      <c r="C139" s="29">
+      <c r="C139" s="28">
         <v>3.6227233070535748E-7</v>
       </c>
-      <c r="D139" s="29">
+      <c r="D139" s="28">
         <v>3.6227233070535748E-7</v>
       </c>
-      <c r="E139" s="29">
+      <c r="E139" s="28">
         <v>3.9312836429848869E-2</v>
       </c>
-      <c r="F139" s="29">
+      <c r="F139" s="28">
         <v>0.84549237391036203</v>
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="29" t="s">
+      <c r="A140" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B140" s="29">
+      <c r="B140" s="28">
         <v>15</v>
       </c>
-      <c r="C140" s="29">
+      <c r="C140" s="28">
         <v>1.3822673340493059E-4</v>
       </c>
-      <c r="D140" s="29">
+      <c r="D140" s="28">
         <v>9.2151155603287053E-6</v>
       </c>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
     </row>
     <row r="141" spans="1:9" ht="15" thickBot="1">
-      <c r="A141" s="30" t="s">
+      <c r="A141" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B141" s="30">
+      <c r="B141" s="29">
         <v>16</v>
       </c>
-      <c r="C141" s="30">
+      <c r="C141" s="29">
         <v>1.3858900573563595E-4</v>
       </c>
-      <c r="D141" s="30"/>
-      <c r="E141" s="30"/>
-      <c r="F141" s="30"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
     </row>
     <row r="142" spans="1:9" ht="15" thickBot="1"/>
     <row r="143" spans="1:9">
-      <c r="A143" s="31"/>
-      <c r="B143" s="31" t="s">
+      <c r="A143" s="30"/>
+      <c r="B143" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C143" s="31" t="s">
+      <c r="C143" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D143" s="31" t="s">
+      <c r="D143" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E143" s="31" t="s">
+      <c r="E143" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F143" s="31" t="s">
+      <c r="F143" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G143" s="31" t="s">
+      <c r="G143" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H143" s="31" t="s">
+      <c r="H143" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I143" s="31" t="s">
+      <c r="I143" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="29" t="s">
+      <c r="A144" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B144" s="29">
+      <c r="B144" s="28">
         <v>8.0053504584339033E-3</v>
       </c>
-      <c r="C144" s="29">
+      <c r="C144" s="28">
         <v>2.3520491044783892E-3</v>
       </c>
-      <c r="D144" s="29">
+      <c r="D144" s="28">
         <v>3.4035643402135687</v>
       </c>
-      <c r="E144" s="29">
+      <c r="E144" s="28">
         <v>3.9289422883656113E-3</v>
       </c>
-      <c r="F144" s="29">
+      <c r="F144" s="28">
         <v>2.9920764868064014E-3</v>
       </c>
-      <c r="G144" s="29">
+      <c r="G144" s="28">
         <v>1.3018624430061406E-2</v>
       </c>
-      <c r="H144" s="29">
+      <c r="H144" s="28">
         <v>2.9920764868064014E-3</v>
       </c>
-      <c r="I144" s="29">
+      <c r="I144" s="28">
         <v>1.3018624430061406E-2</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15" thickBot="1">
-      <c r="A145" s="30">
+      <c r="A145" s="29">
         <v>11</v>
       </c>
-      <c r="B145" s="30">
+      <c r="B145" s="29">
         <v>-3.4244562410506939E-5</v>
       </c>
-      <c r="C145" s="30">
+      <c r="C145" s="29">
         <v>1.7271276275575322E-4</v>
       </c>
-      <c r="D145" s="30">
+      <c r="D145" s="29">
         <v>-0.19827464898430744</v>
       </c>
-      <c r="E145" s="30">
+      <c r="E145" s="29">
         <v>0.84549237391035892</v>
       </c>
-      <c r="F145" s="30">
+      <c r="F145" s="29">
         <v>-4.0237310039156808E-4</v>
       </c>
-      <c r="G145" s="30">
+      <c r="G145" s="29">
         <v>3.3388397557055418E-4</v>
       </c>
-      <c r="H145" s="30">
+      <c r="H145" s="29">
         <v>-4.0237310039156808E-4</v>
       </c>
-      <c r="I145" s="30">
+      <c r="I145" s="29">
         <v>3.3388397557055418E-4</v>
       </c>
     </row>
@@ -51629,48 +51605,48 @@
     </row>
     <row r="150" spans="1:9" ht="15" thickBot="1"/>
     <row r="151" spans="1:9">
-      <c r="A151" s="32" t="s">
+      <c r="A151" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B151" s="32"/>
+      <c r="B151" s="31"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="29" t="s">
+      <c r="A152" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B152" s="29">
+      <c r="B152" s="28">
         <v>0.26549340790111309</v>
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="29" t="s">
+      <c r="A153" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B153" s="29">
+      <c r="B153" s="28">
         <v>7.0486749638946813E-2</v>
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="29" t="s">
+      <c r="A154" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B154" s="29">
+      <c r="B154" s="28">
         <v>8.5191996148766009E-3</v>
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="29" t="s">
+      <c r="A155" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B155" s="29">
+      <c r="B155" s="28">
         <v>8.7570778400091025E-3</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15" thickBot="1">
-      <c r="A156" s="30" t="s">
+      <c r="A156" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B156" s="30">
+      <c r="B156" s="29">
         <v>17</v>
       </c>
     </row>
@@ -51680,156 +51656,156 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="31"/>
-      <c r="B159" s="31" t="s">
+      <c r="A159" s="30"/>
+      <c r="B159" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C159" s="31" t="s">
+      <c r="C159" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D159" s="31" t="s">
+      <c r="D159" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E159" s="31" t="s">
+      <c r="E159" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F159" s="31" t="s">
+      <c r="F159" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="29" t="s">
+      <c r="A160" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B160" s="29">
+      <c r="B160" s="28">
         <v>1</v>
       </c>
-      <c r="C160" s="29">
+      <c r="C160" s="28">
         <v>8.7229137542408318E-5</v>
       </c>
-      <c r="D160" s="29">
+      <c r="D160" s="28">
         <v>8.7229137542408318E-5</v>
       </c>
-      <c r="E160" s="29">
+      <c r="E160" s="28">
         <v>1.1374783997683864</v>
       </c>
-      <c r="F160" s="29">
+      <c r="F160" s="28">
         <v>0.30305178467839744</v>
       </c>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="29" t="s">
+      <c r="A161" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B161" s="29">
+      <c r="B161" s="28">
         <v>15</v>
       </c>
-      <c r="C161" s="29">
+      <c r="C161" s="28">
         <v>1.1502961844396774E-3</v>
       </c>
-      <c r="D161" s="29">
+      <c r="D161" s="28">
         <v>7.668641229597849E-5</v>
       </c>
-      <c r="E161" s="29"/>
-      <c r="F161" s="29"/>
+      <c r="E161" s="28"/>
+      <c r="F161" s="28"/>
     </row>
     <row r="162" spans="1:9" ht="15" thickBot="1">
-      <c r="A162" s="30" t="s">
+      <c r="A162" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B162" s="30">
+      <c r="B162" s="29">
         <v>16</v>
       </c>
-      <c r="C162" s="30">
+      <c r="C162" s="29">
         <v>1.2375253219820857E-3</v>
       </c>
-      <c r="D162" s="30"/>
-      <c r="E162" s="30"/>
-      <c r="F162" s="30"/>
+      <c r="D162" s="29"/>
+      <c r="E162" s="29"/>
+      <c r="F162" s="29"/>
     </row>
     <row r="163" spans="1:9" ht="15" thickBot="1"/>
     <row r="164" spans="1:9">
-      <c r="A164" s="31"/>
-      <c r="B164" s="31" t="s">
+      <c r="A164" s="30"/>
+      <c r="B164" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C164" s="31" t="s">
+      <c r="C164" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D164" s="31" t="s">
+      <c r="D164" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E164" s="31" t="s">
+      <c r="E164" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F164" s="31" t="s">
+      <c r="F164" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G164" s="31" t="s">
+      <c r="G164" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H164" s="31" t="s">
+      <c r="H164" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I164" s="31" t="s">
+      <c r="I164" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="29" t="s">
+      <c r="A165" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B165" s="29">
+      <c r="B165" s="28">
         <v>3.6974358573866467E-2</v>
       </c>
-      <c r="C165" s="29">
+      <c r="C165" s="28">
         <v>2.2481247162360277E-2</v>
       </c>
-      <c r="D165" s="29">
+      <c r="D165" s="28">
         <v>1.6446755959238597</v>
       </c>
-      <c r="E165" s="29">
+      <c r="E165" s="28">
         <v>0.12082547882536313</v>
       </c>
-      <c r="F165" s="29">
+      <c r="F165" s="28">
         <v>-1.094328525176267E-2</v>
       </c>
-      <c r="G165" s="29">
+      <c r="G165" s="28">
         <v>8.4892002399495597E-2</v>
       </c>
-      <c r="H165" s="29">
+      <c r="H165" s="28">
         <v>-1.094328525176267E-2</v>
       </c>
-      <c r="I165" s="29">
+      <c r="I165" s="28">
         <v>8.4892002399495597E-2</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15" thickBot="1">
-      <c r="A166" s="30">
+      <c r="A166" s="29">
         <v>1.708111111</v>
       </c>
-      <c r="B166" s="30">
+      <c r="B166" s="29">
         <v>-1.9478016384658528E-2</v>
       </c>
-      <c r="C166" s="30">
+      <c r="C166" s="29">
         <v>1.8263043252179843E-2</v>
       </c>
-      <c r="D166" s="30">
+      <c r="D166" s="29">
         <v>-1.0665263239922333</v>
       </c>
-      <c r="E166" s="30">
+      <c r="E166" s="29">
         <v>0.30305178467839744</v>
       </c>
-      <c r="F166" s="30">
+      <c r="F166" s="29">
         <v>-5.8404771444547088E-2</v>
       </c>
-      <c r="G166" s="30">
+      <c r="G166" s="29">
         <v>1.9448738675230032E-2</v>
       </c>
-      <c r="H166" s="30">
+      <c r="H166" s="29">
         <v>-5.8404771444547088E-2</v>
       </c>
-      <c r="I166" s="30">
+      <c r="I166" s="29">
         <v>1.9448738675230032E-2</v>
       </c>
     </row>
@@ -51846,48 +51822,48 @@
     </row>
     <row r="170" spans="1:9" ht="15" thickBot="1"/>
     <row r="171" spans="1:9">
-      <c r="A171" s="32" t="s">
+      <c r="A171" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B171" s="32"/>
+      <c r="B171" s="31"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="29" t="s">
+      <c r="A172" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B172" s="29">
+      <c r="B172" s="28">
         <v>0.26795011492284271</v>
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="29" t="s">
+      <c r="A173" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B173" s="29">
+      <c r="B173" s="28">
         <v>7.1797264087164622E-2</v>
       </c>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="29" t="s">
+      <c r="A174" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B174" s="29">
+      <c r="B174" s="28">
         <v>9.9170816929755965E-3</v>
       </c>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="29" t="s">
+      <c r="A175" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B175" s="29">
+      <c r="B175" s="28">
         <v>8.7509023901354861E-3</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15" thickBot="1">
-      <c r="A176" s="30" t="s">
+      <c r="A176" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B176" s="30">
+      <c r="B176" s="29">
         <v>17</v>
       </c>
     </row>
@@ -51897,156 +51873,156 @@
       </c>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="31"/>
-      <c r="B179" s="31" t="s">
+      <c r="A179" s="30"/>
+      <c r="B179" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C179" s="31" t="s">
+      <c r="C179" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D179" s="31" t="s">
+      <c r="D179" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E179" s="31" t="s">
+      <c r="E179" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F179" s="31" t="s">
+      <c r="F179" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="29" t="s">
+      <c r="A180" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B180" s="29">
+      <c r="B180" s="28">
         <v>1</v>
       </c>
-      <c r="C180" s="29">
+      <c r="C180" s="28">
         <v>8.885093235690123E-5</v>
       </c>
-      <c r="D180" s="29">
+      <c r="D180" s="28">
         <v>8.885093235690123E-5</v>
       </c>
-      <c r="E180" s="29">
+      <c r="E180" s="28">
         <v>1.1602626448287081</v>
       </c>
-      <c r="F180" s="29">
+      <c r="F180" s="28">
         <v>0.29843030452258645</v>
       </c>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="29" t="s">
+      <c r="A181" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B181" s="29">
+      <c r="B181" s="28">
         <v>15</v>
       </c>
-      <c r="C181" s="29">
+      <c r="C181" s="28">
         <v>1.1486743896251845E-3</v>
       </c>
-      <c r="D181" s="29">
+      <c r="D181" s="28">
         <v>7.6578292641678967E-5</v>
       </c>
-      <c r="E181" s="29"/>
-      <c r="F181" s="29"/>
+      <c r="E181" s="28"/>
+      <c r="F181" s="28"/>
     </row>
     <row r="182" spans="1:9" ht="15" thickBot="1">
-      <c r="A182" s="30" t="s">
+      <c r="A182" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B182" s="30">
+      <c r="B182" s="29">
         <v>16</v>
       </c>
-      <c r="C182" s="30">
+      <c r="C182" s="29">
         <v>1.2375253219820857E-3</v>
       </c>
-      <c r="D182" s="30"/>
-      <c r="E182" s="30"/>
-      <c r="F182" s="30"/>
+      <c r="D182" s="29"/>
+      <c r="E182" s="29"/>
+      <c r="F182" s="29"/>
     </row>
     <row r="183" spans="1:9" ht="15" thickBot="1"/>
     <row r="184" spans="1:9">
-      <c r="A184" s="31"/>
-      <c r="B184" s="31" t="s">
+      <c r="A184" s="30"/>
+      <c r="B184" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C184" s="31" t="s">
+      <c r="C184" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D184" s="31" t="s">
+      <c r="D184" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E184" s="31" t="s">
+      <c r="E184" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F184" s="31" t="s">
+      <c r="F184" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G184" s="31" t="s">
+      <c r="G184" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H184" s="31" t="s">
+      <c r="H184" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I184" s="31" t="s">
+      <c r="I184" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="29" t="s">
+      <c r="A185" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B185" s="29">
+      <c r="B185" s="28">
         <v>1.6842399374750655E-2</v>
       </c>
-      <c r="C185" s="29">
+      <c r="C185" s="28">
         <v>4.067548344544294E-3</v>
       </c>
-      <c r="D185" s="29">
+      <c r="D185" s="28">
         <v>4.1406758932173391</v>
       </c>
-      <c r="E185" s="29">
+      <c r="E185" s="28">
         <v>8.7141079041720118E-4</v>
       </c>
-      <c r="F185" s="29">
+      <c r="F185" s="28">
         <v>8.1726253444322303E-3</v>
       </c>
-      <c r="G185" s="29">
+      <c r="G185" s="28">
         <v>2.5512173405069082E-2</v>
       </c>
-      <c r="H185" s="29">
+      <c r="H185" s="28">
         <v>8.1726253444322303E-3</v>
       </c>
-      <c r="I185" s="29">
+      <c r="I185" s="28">
         <v>2.5512173405069082E-2</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15" thickBot="1">
-      <c r="A186" s="30">
+      <c r="A186" s="29">
         <v>0.72607473</v>
       </c>
-      <c r="B186" s="30">
+      <c r="B186" s="29">
         <v>-3.652515900686827E-3</v>
       </c>
-      <c r="C186" s="30">
+      <c r="C186" s="29">
         <v>3.3908920191827049E-3</v>
       </c>
-      <c r="D186" s="30">
+      <c r="D186" s="29">
         <v>-1.0771548843266263</v>
       </c>
-      <c r="E186" s="30">
+      <c r="E186" s="29">
         <v>0.29843030452258645</v>
       </c>
-      <c r="F186" s="30">
+      <c r="F186" s="29">
         <v>-1.0880031120501095E-2</v>
       </c>
-      <c r="G186" s="30">
+      <c r="G186" s="29">
         <v>3.5749993191274416E-3</v>
       </c>
-      <c r="H186" s="30">
+      <c r="H186" s="29">
         <v>-1.0880031120501095E-2</v>
       </c>
-      <c r="I186" s="30">
+      <c r="I186" s="29">
         <v>3.5749993191274416E-3</v>
       </c>
     </row>
@@ -52063,48 +52039,48 @@
     </row>
     <row r="192" spans="1:9" ht="15" thickBot="1"/>
     <row r="193" spans="1:9">
-      <c r="A193" s="32" t="s">
+      <c r="A193" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B193" s="32"/>
+      <c r="B193" s="31"/>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="29" t="s">
+      <c r="A194" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B194" s="29">
+      <c r="B194" s="28">
         <v>0.39552809670645467</v>
       </c>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="29" t="s">
+      <c r="A195" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B195" s="29">
+      <c r="B195" s="28">
         <v>0.15644247528423055</v>
       </c>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="29" t="s">
+      <c r="A196" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B196" s="29">
+      <c r="B196" s="28">
         <v>0.10020530696984592</v>
       </c>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="29" t="s">
+      <c r="A197" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B197" s="29">
+      <c r="B197" s="28">
         <v>8.3423569706420255E-3</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="15" thickBot="1">
-      <c r="A198" s="30" t="s">
+      <c r="A198" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B198" s="30">
+      <c r="B198" s="29">
         <v>17</v>
       </c>
     </row>
@@ -52114,156 +52090,156 @@
       </c>
     </row>
     <row r="201" spans="1:9">
-      <c r="A201" s="31"/>
-      <c r="B201" s="31" t="s">
+      <c r="A201" s="30"/>
+      <c r="B201" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C201" s="31" t="s">
+      <c r="C201" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D201" s="31" t="s">
+      <c r="D201" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E201" s="31" t="s">
+      <c r="E201" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F201" s="31" t="s">
+      <c r="F201" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="29" t="s">
+      <c r="A202" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B202" s="29">
+      <c r="B202" s="28">
         <v>1</v>
       </c>
-      <c r="C202" s="29">
+      <c r="C202" s="28">
         <v>1.9360152459779192E-4</v>
       </c>
-      <c r="D202" s="29">
+      <c r="D202" s="28">
         <v>1.9360152459779192E-4</v>
       </c>
-      <c r="E202" s="29">
+      <c r="E202" s="28">
         <v>2.7818341494305807</v>
       </c>
-      <c r="F202" s="29">
+      <c r="F202" s="28">
         <v>0.11607415850289068</v>
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="29" t="s">
+      <c r="A203" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B203" s="29">
+      <c r="B203" s="28">
         <v>15</v>
       </c>
-      <c r="C203" s="29">
+      <c r="C203" s="28">
         <v>1.0439237973842938E-3</v>
       </c>
-      <c r="D203" s="29">
+      <c r="D203" s="28">
         <v>6.9594919825619587E-5</v>
       </c>
-      <c r="E203" s="29"/>
-      <c r="F203" s="29"/>
+      <c r="E203" s="28"/>
+      <c r="F203" s="28"/>
     </row>
     <row r="204" spans="1:9" ht="15" thickBot="1">
-      <c r="A204" s="30" t="s">
+      <c r="A204" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B204" s="30">
+      <c r="B204" s="29">
         <v>16</v>
       </c>
-      <c r="C204" s="30">
+      <c r="C204" s="29">
         <v>1.2375253219820857E-3</v>
       </c>
-      <c r="D204" s="30"/>
-      <c r="E204" s="30"/>
-      <c r="F204" s="30"/>
+      <c r="D204" s="29"/>
+      <c r="E204" s="29"/>
+      <c r="F204" s="29"/>
     </row>
     <row r="205" spans="1:9" ht="15" thickBot="1"/>
     <row r="206" spans="1:9">
-      <c r="A206" s="31"/>
-      <c r="B206" s="31" t="s">
+      <c r="A206" s="30"/>
+      <c r="B206" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C206" s="31" t="s">
+      <c r="C206" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D206" s="31" t="s">
+      <c r="D206" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E206" s="31" t="s">
+      <c r="E206" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F206" s="31" t="s">
+      <c r="F206" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G206" s="31" t="s">
+      <c r="G206" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H206" s="31" t="s">
+      <c r="H206" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I206" s="31" t="s">
+      <c r="I206" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="29" t="s">
+      <c r="A207" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B207" s="29">
+      <c r="B207" s="28">
         <v>2.627787012211244E-2</v>
       </c>
-      <c r="C207" s="29">
+      <c r="C207" s="28">
         <v>8.1531491787596704E-3</v>
       </c>
-      <c r="D207" s="29">
+      <c r="D207" s="28">
         <v>3.2230331551605516</v>
       </c>
-      <c r="E207" s="29">
+      <c r="E207" s="28">
         <v>5.6890811626821242E-3</v>
       </c>
-      <c r="F207" s="29">
+      <c r="F207" s="28">
         <v>8.8998440907483677E-3</v>
       </c>
-      <c r="G207" s="29">
+      <c r="G207" s="28">
         <v>4.3655896153476509E-2</v>
       </c>
-      <c r="H207" s="29">
+      <c r="H207" s="28">
         <v>8.8998440907483677E-3</v>
       </c>
-      <c r="I207" s="29">
+      <c r="I207" s="28">
         <v>4.3655896153476509E-2</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="15" thickBot="1">
-      <c r="A208" s="30">
+      <c r="A208" s="29">
         <v>2</v>
       </c>
-      <c r="B208" s="30">
+      <c r="B208" s="29">
         <v>-6.1575826614275117E-3</v>
       </c>
-      <c r="C208" s="30">
+      <c r="C208" s="29">
         <v>3.6918549837668944E-3</v>
       </c>
-      <c r="D208" s="30">
+      <c r="D208" s="29">
         <v>-1.6678831342245117</v>
       </c>
-      <c r="E208" s="30">
+      <c r="E208" s="29">
         <v>0.11607415850289068</v>
       </c>
-      <c r="F208" s="30">
+      <c r="F208" s="29">
         <v>-1.402658525236041E-2</v>
       </c>
-      <c r="G208" s="30">
+      <c r="G208" s="29">
         <v>1.7114199295053863E-3</v>
       </c>
-      <c r="H208" s="30">
+      <c r="H208" s="29">
         <v>-1.402658525236041E-2</v>
       </c>
-      <c r="I208" s="30">
+      <c r="I208" s="29">
         <v>1.7114199295053863E-3</v>
       </c>
     </row>
@@ -52280,48 +52256,48 @@
     </row>
     <row r="213" spans="1:6" ht="15" thickBot="1"/>
     <row r="214" spans="1:6">
-      <c r="A214" s="32" t="s">
+      <c r="A214" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B214" s="32"/>
+      <c r="B214" s="31"/>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="29" t="s">
+      <c r="A215" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B215" s="29">
+      <c r="B215" s="28">
         <v>0.38110663124460958</v>
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="29" t="s">
+      <c r="A216" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B216" s="29">
+      <c r="B216" s="28">
         <v>0.14524226437861482</v>
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="29" t="s">
+      <c r="A217" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B217" s="29">
+      <c r="B217" s="28">
         <v>8.8258415337189131E-2</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="29" t="s">
+      <c r="A218" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B218" s="29">
+      <c r="B218" s="28">
         <v>8.3975565572831298E-3</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="15" thickBot="1">
-      <c r="A219" s="30" t="s">
+      <c r="A219" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B219" s="30">
+      <c r="B219" s="29">
         <v>17</v>
       </c>
     </row>
@@ -52331,156 +52307,156 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="31"/>
-      <c r="B222" s="31" t="s">
+      <c r="A222" s="30"/>
+      <c r="B222" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C222" s="31" t="s">
+      <c r="C222" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D222" s="31" t="s">
+      <c r="D222" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E222" s="31" t="s">
+      <c r="E222" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F222" s="31" t="s">
+      <c r="F222" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="29" t="s">
+      <c r="A223" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B223" s="29">
+      <c r="B223" s="28">
         <v>1</v>
       </c>
-      <c r="C223" s="29">
+      <c r="C223" s="28">
         <v>1.7974097999055253E-4</v>
       </c>
-      <c r="D223" s="29">
+      <c r="D223" s="28">
         <v>1.7974097999055253E-4</v>
       </c>
-      <c r="E223" s="29">
+      <c r="E223" s="28">
         <v>2.5488321133419349</v>
       </c>
-      <c r="F223" s="29">
+      <c r="F223" s="28">
         <v>0.13122420802024781</v>
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="29" t="s">
+      <c r="A224" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B224" s="29">
+      <c r="B224" s="28">
         <v>15</v>
       </c>
-      <c r="C224" s="29">
+      <c r="C224" s="28">
         <v>1.0577843419915332E-3</v>
       </c>
-      <c r="D224" s="29">
+      <c r="D224" s="28">
         <v>7.0518956132768884E-5</v>
       </c>
-      <c r="E224" s="29"/>
-      <c r="F224" s="29"/>
+      <c r="E224" s="28"/>
+      <c r="F224" s="28"/>
     </row>
     <row r="225" spans="1:9" ht="15" thickBot="1">
-      <c r="A225" s="30" t="s">
+      <c r="A225" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B225" s="30">
+      <c r="B225" s="29">
         <v>16</v>
       </c>
-      <c r="C225" s="30">
+      <c r="C225" s="29">
         <v>1.2375253219820857E-3</v>
       </c>
-      <c r="D225" s="30"/>
-      <c r="E225" s="30"/>
-      <c r="F225" s="30"/>
+      <c r="D225" s="29"/>
+      <c r="E225" s="29"/>
+      <c r="F225" s="29"/>
     </row>
     <row r="226" spans="1:9" ht="15" thickBot="1"/>
     <row r="227" spans="1:9">
-      <c r="A227" s="31"/>
-      <c r="B227" s="31" t="s">
+      <c r="A227" s="30"/>
+      <c r="B227" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C227" s="31" t="s">
+      <c r="C227" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D227" s="31" t="s">
+      <c r="D227" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E227" s="31" t="s">
+      <c r="E227" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F227" s="31" t="s">
+      <c r="F227" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G227" s="31" t="s">
+      <c r="G227" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H227" s="31" t="s">
+      <c r="H227" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I227" s="31" t="s">
+      <c r="I227" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="29" t="s">
+      <c r="A228" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B228" s="29">
+      <c r="B228" s="28">
         <v>2.2970425182097659E-2</v>
       </c>
-      <c r="C228" s="29">
+      <c r="C228" s="28">
         <v>6.5065223959526004E-3</v>
       </c>
-      <c r="D228" s="29">
+      <c r="D228" s="28">
         <v>3.5303690334465725</v>
       </c>
-      <c r="E228" s="29">
+      <c r="E228" s="28">
         <v>3.0287929354157004E-3</v>
       </c>
-      <c r="F228" s="29">
+      <c r="F228" s="28">
         <v>9.1021010423793028E-3</v>
       </c>
-      <c r="G228" s="29">
+      <c r="G228" s="28">
         <v>3.6838749321816015E-2</v>
       </c>
-      <c r="H228" s="29">
+      <c r="H228" s="28">
         <v>9.1021010423793028E-3</v>
       </c>
-      <c r="I228" s="29">
+      <c r="I228" s="28">
         <v>3.6838749321816015E-2</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="15" thickBot="1">
-      <c r="A229" s="30">
+      <c r="A229" s="29">
         <v>11</v>
       </c>
-      <c r="B229" s="30">
+      <c r="B229" s="29">
         <v>-7.6277700306581785E-4</v>
       </c>
-      <c r="C229" s="30">
+      <c r="C229" s="29">
         <v>4.7777891065177024E-4</v>
       </c>
-      <c r="D229" s="30">
+      <c r="D229" s="29">
         <v>-1.5965062208904588</v>
       </c>
-      <c r="E229" s="30">
+      <c r="E229" s="29">
         <v>0.13122420802024781</v>
       </c>
-      <c r="F229" s="30">
+      <c r="F229" s="29">
         <v>-1.781138640330296E-3</v>
       </c>
-      <c r="G229" s="30">
+      <c r="G229" s="29">
         <v>2.5558463419866027E-4</v>
       </c>
-      <c r="H229" s="30">
+      <c r="H229" s="29">
         <v>-1.781138640330296E-3</v>
       </c>
-      <c r="I229" s="30">
+      <c r="I229" s="29">
         <v>2.5558463419866027E-4</v>
       </c>
     </row>
@@ -52497,48 +52473,48 @@
     </row>
     <row r="235" spans="1:9" ht="15" thickBot="1"/>
     <row r="236" spans="1:9">
-      <c r="A236" s="32" t="s">
+      <c r="A236" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B236" s="32"/>
+      <c r="B236" s="31"/>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="29" t="s">
+      <c r="A237" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B237" s="29">
+      <c r="B237" s="28">
         <v>8.6602640295518729E-2</v>
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="29" t="s">
+      <c r="A238" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B238" s="29">
+      <c r="B238" s="28">
         <v>7.5000173061550036E-3</v>
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="29" t="s">
+      <c r="A239" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B239" s="29">
+      <c r="B239" s="28">
         <v>-5.8666648206768E-2</v>
       </c>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="29" t="s">
+      <c r="A240" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B240" s="29">
+      <c r="B240" s="28">
         <v>4.2635306288350393E-3</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="15" thickBot="1">
-      <c r="A241" s="30" t="s">
+      <c r="A241" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B241" s="30">
+      <c r="B241" s="29">
         <v>17</v>
       </c>
     </row>
@@ -52548,156 +52524,156 @@
       </c>
     </row>
     <row r="244" spans="1:9">
-      <c r="A244" s="31"/>
-      <c r="B244" s="31" t="s">
+      <c r="A244" s="30"/>
+      <c r="B244" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C244" s="31" t="s">
+      <c r="C244" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D244" s="31" t="s">
+      <c r="D244" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E244" s="31" t="s">
+      <c r="E244" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F244" s="31" t="s">
+      <c r="F244" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="29" t="s">
+      <c r="A245" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B245" s="29">
+      <c r="B245" s="28">
         <v>1</v>
       </c>
-      <c r="C245" s="29">
+      <c r="C245" s="28">
         <v>2.0604486292567E-6</v>
       </c>
-      <c r="D245" s="29">
+      <c r="D245" s="28">
         <v>2.0604486292567E-6</v>
       </c>
-      <c r="E245" s="29">
+      <c r="E245" s="28">
         <v>0.11335038947504732</v>
       </c>
-      <c r="F245" s="29">
+      <c r="F245" s="28">
         <v>0.74102567911288908</v>
       </c>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="29" t="s">
+      <c r="A246" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B246" s="29">
+      <c r="B246" s="28">
         <v>15</v>
       </c>
-      <c r="C246" s="29">
+      <c r="C246" s="28">
         <v>2.7266540134521754E-4</v>
       </c>
-      <c r="D246" s="29">
+      <c r="D246" s="28">
         <v>1.8177693423014503E-5</v>
       </c>
-      <c r="E246" s="29"/>
-      <c r="F246" s="29"/>
+      <c r="E246" s="28"/>
+      <c r="F246" s="28"/>
     </row>
     <row r="247" spans="1:9" ht="15" thickBot="1">
-      <c r="A247" s="30" t="s">
+      <c r="A247" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B247" s="30">
+      <c r="B247" s="29">
         <v>16</v>
       </c>
-      <c r="C247" s="30">
+      <c r="C247" s="29">
         <v>2.7472584997447424E-4</v>
       </c>
-      <c r="D247" s="30"/>
-      <c r="E247" s="30"/>
-      <c r="F247" s="30"/>
+      <c r="D247" s="29"/>
+      <c r="E247" s="29"/>
+      <c r="F247" s="29"/>
     </row>
     <row r="248" spans="1:9" ht="15" thickBot="1"/>
     <row r="249" spans="1:9">
-      <c r="A249" s="31"/>
-      <c r="B249" s="31" t="s">
+      <c r="A249" s="30"/>
+      <c r="B249" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C249" s="31" t="s">
+      <c r="C249" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D249" s="31" t="s">
+      <c r="D249" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E249" s="31" t="s">
+      <c r="E249" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F249" s="31" t="s">
+      <c r="F249" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G249" s="31" t="s">
+      <c r="G249" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H249" s="31" t="s">
+      <c r="H249" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I249" s="31" t="s">
+      <c r="I249" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="250" spans="1:9">
-      <c r="A250" s="29" t="s">
+      <c r="A250" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B250" s="29">
+      <c r="B250" s="28">
         <v>1.1202595737729519E-2</v>
       </c>
-      <c r="C250" s="29">
+      <c r="C250" s="28">
         <v>1.0945373285734573E-2</v>
       </c>
-      <c r="D250" s="29">
+      <c r="D250" s="28">
         <v>1.023500564602049</v>
       </c>
-      <c r="E250" s="29">
+      <c r="E250" s="28">
         <v>0.32229517064166746</v>
       </c>
-      <c r="F250" s="29">
+      <c r="F250" s="28">
         <v>-1.2126915069949409E-2</v>
       </c>
-      <c r="G250" s="29">
+      <c r="G250" s="28">
         <v>3.4532106545408447E-2</v>
       </c>
-      <c r="H250" s="29">
+      <c r="H250" s="28">
         <v>-1.2126915069949409E-2</v>
       </c>
-      <c r="I250" s="29">
+      <c r="I250" s="28">
         <v>3.4532106545408447E-2</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="15" thickBot="1">
-      <c r="A251" s="30">
+      <c r="A251" s="29">
         <v>1.708111111</v>
       </c>
-      <c r="B251" s="30">
+      <c r="B251" s="29">
         <v>-2.9936073274913853E-3</v>
       </c>
-      <c r="C251" s="30">
+      <c r="C251" s="29">
         <v>8.8916697674719884E-3</v>
       </c>
-      <c r="D251" s="30">
+      <c r="D251" s="29">
         <v>-0.33667549580426048</v>
       </c>
-      <c r="E251" s="30">
+      <c r="E251" s="29">
         <v>0.74102567911289074</v>
       </c>
-      <c r="F251" s="30">
+      <c r="F251" s="29">
         <v>-2.1945752724753458E-2</v>
       </c>
-      <c r="G251" s="30">
+      <c r="G251" s="29">
         <v>1.5958538069770691E-2</v>
       </c>
-      <c r="H251" s="30">
+      <c r="H251" s="29">
         <v>-2.1945752724753458E-2</v>
       </c>
-      <c r="I251" s="30">
+      <c r="I251" s="29">
         <v>1.5958538069770691E-2</v>
       </c>
     </row>
@@ -52714,48 +52690,48 @@
     </row>
     <row r="255" spans="1:9" ht="15" thickBot="1"/>
     <row r="256" spans="1:9">
-      <c r="A256" s="32" t="s">
+      <c r="A256" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B256" s="32"/>
+      <c r="B256" s="31"/>
     </row>
     <row r="257" spans="1:9">
-      <c r="A257" s="29" t="s">
+      <c r="A257" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B257" s="29">
+      <c r="B257" s="28">
         <v>0.1192040040532346</v>
       </c>
     </row>
     <row r="258" spans="1:9">
-      <c r="A258" s="29" t="s">
+      <c r="A258" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B258" s="29">
+      <c r="B258" s="28">
         <v>1.420959458232357E-2</v>
       </c>
     </row>
     <row r="259" spans="1:9">
-      <c r="A259" s="29" t="s">
+      <c r="A259" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B259" s="29">
+      <c r="B259" s="28">
         <v>-5.1509765778854862E-2</v>
       </c>
     </row>
     <row r="260" spans="1:9">
-      <c r="A260" s="29" t="s">
+      <c r="A260" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B260" s="29">
+      <c r="B260" s="28">
         <v>4.2490948606736844E-3</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="15" thickBot="1">
-      <c r="A261" s="30" t="s">
+      <c r="A261" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B261" s="30">
+      <c r="B261" s="29">
         <v>17</v>
       </c>
     </row>
@@ -52765,156 +52741,156 @@
       </c>
     </row>
     <row r="264" spans="1:9">
-      <c r="A264" s="31"/>
-      <c r="B264" s="31" t="s">
+      <c r="A264" s="30"/>
+      <c r="B264" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C264" s="31" t="s">
+      <c r="C264" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D264" s="31" t="s">
+      <c r="D264" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E264" s="31" t="s">
+      <c r="E264" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F264" s="31" t="s">
+      <c r="F264" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="265" spans="1:9">
-      <c r="A265" s="29" t="s">
+      <c r="A265" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B265" s="29">
+      <c r="B265" s="28">
         <v>1</v>
       </c>
-      <c r="C265" s="29">
+      <c r="C265" s="28">
         <v>3.903742949421527E-6</v>
       </c>
-      <c r="D265" s="29">
+      <c r="D265" s="28">
         <v>3.903742949421527E-6</v>
       </c>
-      <c r="E265" s="29">
+      <c r="E265" s="28">
         <v>0.21621626419111384</v>
       </c>
-      <c r="F265" s="29">
+      <c r="F265" s="28">
         <v>0.64861670756451262</v>
       </c>
     </row>
     <row r="266" spans="1:9">
-      <c r="A266" s="29" t="s">
+      <c r="A266" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B266" s="29">
+      <c r="B266" s="28">
         <v>15</v>
       </c>
-      <c r="C266" s="29">
+      <c r="C266" s="28">
         <v>2.7082210702505271E-4</v>
       </c>
-      <c r="D266" s="29">
+      <c r="D266" s="28">
         <v>1.8054807135003514E-5</v>
       </c>
-      <c r="E266" s="29"/>
-      <c r="F266" s="29"/>
+      <c r="E266" s="28"/>
+      <c r="F266" s="28"/>
     </row>
     <row r="267" spans="1:9" ht="15" thickBot="1">
-      <c r="A267" s="30" t="s">
+      <c r="A267" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B267" s="30">
+      <c r="B267" s="29">
         <v>16</v>
       </c>
-      <c r="C267" s="30">
+      <c r="C267" s="29">
         <v>2.7472584997447424E-4</v>
       </c>
-      <c r="D267" s="30"/>
-      <c r="E267" s="30"/>
-      <c r="F267" s="30"/>
+      <c r="D267" s="29"/>
+      <c r="E267" s="29"/>
+      <c r="F267" s="29"/>
     </row>
     <row r="268" spans="1:9" ht="15" thickBot="1"/>
     <row r="269" spans="1:9">
-      <c r="A269" s="31"/>
-      <c r="B269" s="31" t="s">
+      <c r="A269" s="30"/>
+      <c r="B269" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C269" s="31" t="s">
+      <c r="C269" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D269" s="31" t="s">
+      <c r="D269" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E269" s="31" t="s">
+      <c r="E269" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F269" s="31" t="s">
+      <c r="F269" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G269" s="31" t="s">
+      <c r="G269" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H269" s="31" t="s">
+      <c r="H269" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I269" s="31" t="s">
+      <c r="I269" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="270" spans="1:9">
-      <c r="A270" s="29" t="s">
+      <c r="A270" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B270" s="29">
+      <c r="B270" s="28">
         <v>8.3174815413346332E-3</v>
       </c>
-      <c r="C270" s="29">
+      <c r="C270" s="28">
         <v>1.9750418866319136E-3</v>
       </c>
-      <c r="D270" s="29">
+      <c r="D270" s="28">
         <v>4.2112937440119991</v>
       </c>
-      <c r="E270" s="29">
+      <c r="E270" s="28">
         <v>7.5547585165231955E-4</v>
       </c>
-      <c r="F270" s="29">
+      <c r="F270" s="28">
         <v>4.1077794291324837E-3</v>
       </c>
-      <c r="G270" s="29">
+      <c r="G270" s="28">
         <v>1.2527183653536783E-2</v>
       </c>
-      <c r="H270" s="29">
+      <c r="H270" s="28">
         <v>4.1077794291324837E-3</v>
       </c>
-      <c r="I270" s="29">
+      <c r="I270" s="28">
         <v>1.2527183653536783E-2</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="15" thickBot="1">
-      <c r="A271" s="30">
+      <c r="A271" s="29">
         <v>0.72607473</v>
       </c>
-      <c r="B271" s="30">
+      <c r="B271" s="29">
         <v>-7.6559965128944842E-4</v>
       </c>
-      <c r="C271" s="30">
+      <c r="C271" s="29">
         <v>1.6464841235174111E-3</v>
       </c>
-      <c r="D271" s="30">
+      <c r="D271" s="29">
         <v>-0.46499060656223357</v>
       </c>
-      <c r="E271" s="30">
+      <c r="E271" s="29">
         <v>0.64861670756451262</v>
       </c>
-      <c r="F271" s="30">
+      <c r="F271" s="29">
         <v>-4.274997471858462E-3</v>
       </c>
-      <c r="G271" s="30">
+      <c r="G271" s="29">
         <v>2.7437981692795647E-3</v>
       </c>
-      <c r="H271" s="30">
+      <c r="H271" s="29">
         <v>-4.274997471858462E-3</v>
       </c>
-      <c r="I271" s="30">
+      <c r="I271" s="29">
         <v>2.7437981692795647E-3</v>
       </c>
     </row>
@@ -52925,10 +52901,10 @@
     </row>
     <row r="277" spans="1:6" ht="15" thickBot="1"/>
     <row r="278" spans="1:6">
-      <c r="A278" s="32" t="s">
+      <c r="A278" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B278" s="32"/>
+      <c r="B278" s="31"/>
       <c r="C278" t="s">
         <v>94</v>
       </c>
@@ -52937,42 +52913,42 @@
       </c>
     </row>
     <row r="279" spans="1:6">
-      <c r="A279" s="29" t="s">
+      <c r="A279" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B279" s="29">
+      <c r="B279" s="28">
         <v>0.21231489445723759</v>
       </c>
     </row>
     <row r="280" spans="1:6">
-      <c r="A280" s="29" t="s">
+      <c r="A280" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B280" s="29">
+      <c r="B280" s="28">
         <v>4.507761440838793E-2</v>
       </c>
     </row>
     <row r="281" spans="1:6">
-      <c r="A281" s="29" t="s">
+      <c r="A281" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B281" s="29">
+      <c r="B281" s="28">
         <v>-1.8583877964386208E-2</v>
       </c>
     </row>
     <row r="282" spans="1:6">
-      <c r="A282" s="29" t="s">
+      <c r="A282" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B282" s="29">
+      <c r="B282" s="28">
         <v>4.1820398853614354E-3</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="15" thickBot="1">
-      <c r="A283" s="30" t="s">
+      <c r="A283" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B283" s="30">
+      <c r="B283" s="29">
         <v>17</v>
       </c>
     </row>
@@ -52982,156 +52958,156 @@
       </c>
     </row>
     <row r="286" spans="1:6">
-      <c r="A286" s="31"/>
-      <c r="B286" s="31" t="s">
+      <c r="A286" s="30"/>
+      <c r="B286" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C286" s="31" t="s">
+      <c r="C286" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D286" s="31" t="s">
+      <c r="D286" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E286" s="31" t="s">
+      <c r="E286" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F286" s="31" t="s">
+      <c r="F286" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="287" spans="1:6">
-      <c r="A287" s="29" t="s">
+      <c r="A287" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B287" s="29">
+      <c r="B287" s="28">
         <v>1</v>
       </c>
-      <c r="C287" s="29">
+      <c r="C287" s="28">
         <v>1.238398593316598E-5</v>
       </c>
-      <c r="D287" s="29">
+      <c r="D287" s="28">
         <v>1.238398593316598E-5</v>
       </c>
-      <c r="E287" s="29">
+      <c r="E287" s="28">
         <v>0.70808290425290266</v>
       </c>
-      <c r="F287" s="29">
+      <c r="F287" s="28">
         <v>0.41329554912503552</v>
       </c>
     </row>
     <row r="288" spans="1:6">
-      <c r="A288" s="29" t="s">
+      <c r="A288" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B288" s="29">
+      <c r="B288" s="28">
         <v>15</v>
       </c>
-      <c r="C288" s="29">
+      <c r="C288" s="28">
         <v>2.6234186404130826E-4</v>
       </c>
-      <c r="D288" s="29">
+      <c r="D288" s="28">
         <v>1.7489457602753885E-5</v>
       </c>
-      <c r="E288" s="29"/>
-      <c r="F288" s="29"/>
+      <c r="E288" s="28"/>
+      <c r="F288" s="28"/>
     </row>
     <row r="289" spans="1:9" ht="15" thickBot="1">
-      <c r="A289" s="30" t="s">
+      <c r="A289" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B289" s="30">
+      <c r="B289" s="29">
         <v>16</v>
       </c>
-      <c r="C289" s="30">
+      <c r="C289" s="29">
         <v>2.7472584997447424E-4</v>
       </c>
-      <c r="D289" s="30"/>
-      <c r="E289" s="30"/>
-      <c r="F289" s="30"/>
+      <c r="D289" s="29"/>
+      <c r="E289" s="29"/>
+      <c r="F289" s="29"/>
     </row>
     <row r="290" spans="1:9" ht="15" thickBot="1"/>
     <row r="291" spans="1:9">
-      <c r="A291" s="31"/>
-      <c r="B291" s="31" t="s">
+      <c r="A291" s="30"/>
+      <c r="B291" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C291" s="31" t="s">
+      <c r="C291" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D291" s="31" t="s">
+      <c r="D291" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E291" s="31" t="s">
+      <c r="E291" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F291" s="31" t="s">
+      <c r="F291" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G291" s="31" t="s">
+      <c r="G291" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H291" s="31" t="s">
+      <c r="H291" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I291" s="31" t="s">
+      <c r="I291" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="292" spans="1:9">
-      <c r="A292" s="29" t="s">
+      <c r="A292" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B292" s="29">
+      <c r="B292" s="28">
         <v>1.0865726078175693E-2</v>
       </c>
-      <c r="C292" s="29">
+      <c r="C292" s="28">
         <v>4.0871896487846759E-3</v>
       </c>
-      <c r="D292" s="29">
+      <c r="D292" s="28">
         <v>2.6584834597549469</v>
       </c>
-      <c r="E292" s="29">
+      <c r="E292" s="28">
         <v>1.7885493960925931E-2</v>
       </c>
-      <c r="F292" s="29">
+      <c r="F292" s="28">
         <v>2.1540875990540363E-3</v>
       </c>
-      <c r="G292" s="29">
+      <c r="G292" s="28">
         <v>1.9577364557297347E-2</v>
       </c>
-      <c r="H292" s="29">
+      <c r="H292" s="28">
         <v>2.1540875990540363E-3</v>
       </c>
-      <c r="I292" s="29">
+      <c r="I292" s="28">
         <v>1.9577364557297347E-2</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="15" thickBot="1">
-      <c r="A293" s="30">
+      <c r="A293" s="29">
         <v>2</v>
       </c>
-      <c r="B293" s="30">
+      <c r="B293" s="29">
         <v>-1.5573495050084055E-3</v>
       </c>
-      <c r="C293" s="30">
+      <c r="C293" s="29">
         <v>1.8507341327417841E-3</v>
       </c>
-      <c r="D293" s="30">
+      <c r="D293" s="29">
         <v>-0.84147662133472312</v>
       </c>
-      <c r="E293" s="30">
+      <c r="E293" s="29">
         <v>0.41329554912503597</v>
       </c>
-      <c r="F293" s="30">
+      <c r="F293" s="29">
         <v>-5.5020959129005176E-3</v>
       </c>
-      <c r="G293" s="30">
+      <c r="G293" s="29">
         <v>2.387396902883707E-3</v>
       </c>
-      <c r="H293" s="30">
+      <c r="H293" s="29">
         <v>-5.5020959129005176E-3</v>
       </c>
-      <c r="I293" s="30">
+      <c r="I293" s="29">
         <v>2.387396902883707E-3</v>
       </c>
     </row>
@@ -53148,48 +53124,48 @@
     </row>
     <row r="298" spans="1:9" ht="15" thickBot="1"/>
     <row r="299" spans="1:9">
-      <c r="A299" s="32" t="s">
+      <c r="A299" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B299" s="32"/>
+      <c r="B299" s="31"/>
     </row>
     <row r="300" spans="1:9">
-      <c r="A300" s="29" t="s">
+      <c r="A300" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B300" s="29">
+      <c r="B300" s="28">
         <v>0.15687854359972087</v>
       </c>
     </row>
     <row r="301" spans="1:9">
-      <c r="A301" s="29" t="s">
+      <c r="A301" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B301" s="29">
+      <c r="B301" s="28">
         <v>2.4610877441969516E-2</v>
       </c>
     </row>
     <row r="302" spans="1:9">
-      <c r="A302" s="29" t="s">
+      <c r="A302" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B302" s="29">
+      <c r="B302" s="28">
         <v>-4.0415064061899181E-2</v>
       </c>
     </row>
     <row r="303" spans="1:9">
-      <c r="A303" s="29" t="s">
+      <c r="A303" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B303" s="29">
+      <c r="B303" s="28">
         <v>4.2266188673738695E-3</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="15" thickBot="1">
-      <c r="A304" s="30" t="s">
+      <c r="A304" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B304" s="30">
+      <c r="B304" s="29">
         <v>17</v>
       </c>
     </row>
@@ -53199,156 +53175,156 @@
       </c>
     </row>
     <row r="307" spans="1:9">
-      <c r="A307" s="31"/>
-      <c r="B307" s="31" t="s">
+      <c r="A307" s="30"/>
+      <c r="B307" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C307" s="31" t="s">
+      <c r="C307" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D307" s="31" t="s">
+      <c r="D307" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E307" s="31" t="s">
+      <c r="E307" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F307" s="31" t="s">
+      <c r="F307" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="308" spans="1:9">
-      <c r="A308" s="29" t="s">
+      <c r="A308" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B308" s="29">
+      <c r="B308" s="28">
         <v>1</v>
       </c>
-      <c r="C308" s="29">
+      <c r="C308" s="28">
         <v>6.7612442238626893E-6</v>
       </c>
-      <c r="D308" s="29">
+      <c r="D308" s="28">
         <v>6.7612442238626893E-6</v>
       </c>
-      <c r="E308" s="29">
+      <c r="E308" s="28">
         <v>0.37847783319685269</v>
       </c>
-      <c r="F308" s="29">
+      <c r="F308" s="28">
         <v>0.54763974976232022</v>
       </c>
     </row>
     <row r="309" spans="1:9">
-      <c r="A309" s="29" t="s">
+      <c r="A309" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B309" s="29">
+      <c r="B309" s="28">
         <v>15</v>
       </c>
-      <c r="C309" s="29">
+      <c r="C309" s="28">
         <v>2.6796460575061155E-4</v>
       </c>
-      <c r="D309" s="29">
+      <c r="D309" s="28">
         <v>1.7864307050040769E-5</v>
       </c>
-      <c r="E309" s="29"/>
-      <c r="F309" s="29"/>
+      <c r="E309" s="28"/>
+      <c r="F309" s="28"/>
     </row>
     <row r="310" spans="1:9" ht="15" thickBot="1">
-      <c r="A310" s="30" t="s">
+      <c r="A310" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B310" s="30">
+      <c r="B310" s="29">
         <v>16</v>
       </c>
-      <c r="C310" s="30">
+      <c r="C310" s="29">
         <v>2.7472584997447424E-4</v>
       </c>
-      <c r="D310" s="30"/>
-      <c r="E310" s="30"/>
-      <c r="F310" s="30"/>
+      <c r="D310" s="29"/>
+      <c r="E310" s="29"/>
+      <c r="F310" s="29"/>
     </row>
     <row r="311" spans="1:9" ht="15" thickBot="1"/>
     <row r="312" spans="1:9">
-      <c r="A312" s="31"/>
-      <c r="B312" s="31" t="s">
+      <c r="A312" s="30"/>
+      <c r="B312" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C312" s="31" t="s">
+      <c r="C312" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D312" s="31" t="s">
+      <c r="D312" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E312" s="31" t="s">
+      <c r="E312" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F312" s="31" t="s">
+      <c r="F312" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G312" s="31" t="s">
+      <c r="G312" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H312" s="31" t="s">
+      <c r="H312" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I312" s="31" t="s">
+      <c r="I312" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="313" spans="1:9">
-      <c r="A313" s="29" t="s">
+      <c r="A313" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B313" s="29">
+      <c r="B313" s="28">
         <v>9.4474848812919586E-3</v>
       </c>
-      <c r="C313" s="29">
+      <c r="C313" s="28">
         <v>3.2748324029890415E-3</v>
       </c>
-      <c r="D313" s="29">
+      <c r="D313" s="28">
         <v>2.8848758405678852</v>
       </c>
-      <c r="E313" s="29">
+      <c r="E313" s="28">
         <v>1.1336989875193196E-2</v>
       </c>
-      <c r="F313" s="29">
+      <c r="F313" s="28">
         <v>2.4673448765244023E-3</v>
       </c>
-      <c r="G313" s="29">
+      <c r="G313" s="28">
         <v>1.6427624886059516E-2</v>
       </c>
-      <c r="H313" s="29">
+      <c r="H313" s="28">
         <v>2.4673448765244023E-3</v>
       </c>
-      <c r="I313" s="29">
+      <c r="I313" s="28">
         <v>1.6427624886059516E-2</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="15" thickBot="1">
-      <c r="A314" s="30">
+      <c r="A314" s="29">
         <v>11</v>
       </c>
-      <c r="B314" s="30">
+      <c r="B314" s="29">
         <v>-1.4794059128333249E-4</v>
       </c>
-      <c r="C314" s="30">
+      <c r="C314" s="29">
         <v>2.4047344539081516E-4</v>
       </c>
-      <c r="D314" s="30">
+      <c r="D314" s="29">
         <v>-0.61520552110400728</v>
       </c>
-      <c r="E314" s="30">
+      <c r="E314" s="29">
         <v>0.54763974976231955</v>
       </c>
-      <c r="F314" s="30">
+      <c r="F314" s="29">
         <v>-6.6049760480398198E-4</v>
       </c>
-      <c r="G314" s="30">
+      <c r="G314" s="29">
         <v>3.6461642223731706E-4</v>
       </c>
-      <c r="H314" s="30">
+      <c r="H314" s="29">
         <v>-6.6049760480398198E-4</v>
       </c>
-      <c r="I314" s="30">
+      <c r="I314" s="29">
         <v>3.6461642223731706E-4</v>
       </c>
     </row>
@@ -53366,48 +53342,48 @@
       </c>
     </row>
     <row r="318" spans="1:9">
-      <c r="A318" s="32" t="s">
+      <c r="A318" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B318" s="32"/>
+      <c r="B318" s="31"/>
     </row>
     <row r="319" spans="1:9">
-      <c r="A319" s="29" t="s">
+      <c r="A319" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B319" s="29">
+      <c r="B319" s="28">
         <v>3.2933522395513601E-2</v>
       </c>
     </row>
     <row r="320" spans="1:9">
-      <c r="A320" s="29" t="s">
+      <c r="A320" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B320" s="29">
+      <c r="B320" s="28">
         <v>1.0846168973757959E-3</v>
       </c>
     </row>
     <row r="321" spans="1:9">
-      <c r="A321" s="29" t="s">
+      <c r="A321" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B321" s="29">
+      <c r="B321" s="28">
         <v>-6.5509741976132491E-2</v>
       </c>
     </row>
     <row r="322" spans="1:9">
-      <c r="A322" s="29" t="s">
+      <c r="A322" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B322" s="29">
+      <c r="B322" s="28">
         <v>2.5254325615530501E-4</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="15" thickBot="1">
-      <c r="A323" s="30" t="s">
+      <c r="A323" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B323" s="30">
+      <c r="B323" s="29">
         <v>17</v>
       </c>
     </row>
@@ -53417,156 +53393,156 @@
       </c>
     </row>
     <row r="326" spans="1:9">
-      <c r="A326" s="31"/>
-      <c r="B326" s="31" t="s">
+      <c r="A326" s="30"/>
+      <c r="B326" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C326" s="31" t="s">
+      <c r="C326" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D326" s="31" t="s">
+      <c r="D326" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E326" s="31" t="s">
+      <c r="E326" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F326" s="31" t="s">
+      <c r="F326" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="327" spans="1:9">
-      <c r="A327" s="29" t="s">
+      <c r="A327" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B327" s="29">
+      <c r="B327" s="28">
         <v>1</v>
       </c>
-      <c r="C327" s="29">
+      <c r="C327" s="28">
         <v>1.03874865714068E-9</v>
       </c>
-      <c r="D327" s="29">
+      <c r="D327" s="28">
         <v>1.03874865714068E-9</v>
       </c>
-      <c r="E327" s="29">
+      <c r="E327" s="28">
         <v>1.6286918527678239E-2</v>
       </c>
-      <c r="F327" s="29">
+      <c r="F327" s="28">
         <v>0.90014472772324616</v>
       </c>
     </row>
     <row r="328" spans="1:9">
-      <c r="A328" s="29" t="s">
+      <c r="A328" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B328" s="29">
+      <c r="B328" s="28">
         <v>15</v>
       </c>
-      <c r="C328" s="29">
+      <c r="C328" s="28">
         <v>9.566714434428599E-7</v>
       </c>
-      <c r="D328" s="29">
+      <c r="D328" s="28">
         <v>6.3778096229523993E-8</v>
       </c>
-      <c r="E328" s="29"/>
-      <c r="F328" s="29"/>
+      <c r="E328" s="28"/>
+      <c r="F328" s="28"/>
     </row>
     <row r="329" spans="1:9" ht="15" thickBot="1">
-      <c r="A329" s="30" t="s">
+      <c r="A329" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B329" s="30">
+      <c r="B329" s="29">
         <v>16</v>
       </c>
-      <c r="C329" s="30">
+      <c r="C329" s="29">
         <v>9.5771019210000058E-7</v>
       </c>
-      <c r="D329" s="30"/>
-      <c r="E329" s="30"/>
-      <c r="F329" s="30"/>
+      <c r="D329" s="29"/>
+      <c r="E329" s="29"/>
+      <c r="F329" s="29"/>
     </row>
     <row r="330" spans="1:9" ht="15" thickBot="1"/>
     <row r="331" spans="1:9">
-      <c r="A331" s="31"/>
-      <c r="B331" s="31" t="s">
+      <c r="A331" s="30"/>
+      <c r="B331" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C331" s="31" t="s">
+      <c r="C331" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D331" s="31" t="s">
+      <c r="D331" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E331" s="31" t="s">
+      <c r="E331" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F331" s="31" t="s">
+      <c r="F331" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G331" s="31" t="s">
+      <c r="G331" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H331" s="31" t="s">
+      <c r="H331" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I331" s="31" t="s">
+      <c r="I331" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="332" spans="1:9">
-      <c r="A332" s="29" t="s">
+      <c r="A332" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B332" s="29">
+      <c r="B332" s="28">
         <v>3.1775964911289812E-4</v>
       </c>
-      <c r="C332" s="29">
+      <c r="C332" s="28">
         <v>6.4833126581055644E-4</v>
       </c>
-      <c r="D332" s="29">
+      <c r="D332" s="28">
         <v>0.49011927369510522</v>
       </c>
-      <c r="E332" s="29">
+      <c r="E332" s="28">
         <v>0.63114072641394814</v>
       </c>
-      <c r="F332" s="29">
+      <c r="F332" s="28">
         <v>-1.064125726363215E-3</v>
       </c>
-      <c r="G332" s="29">
+      <c r="G332" s="28">
         <v>1.6996450245890112E-3</v>
       </c>
-      <c r="H332" s="29">
+      <c r="H332" s="28">
         <v>-1.064125726363215E-3</v>
       </c>
-      <c r="I332" s="29">
+      <c r="I332" s="28">
         <v>1.6996450245890112E-3</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="15" thickBot="1">
-      <c r="A333" s="30">
+      <c r="A333" s="29">
         <v>1.708111111</v>
       </c>
-      <c r="B333" s="30">
+      <c r="B333" s="29">
         <v>6.7215460014853588E-5</v>
       </c>
-      <c r="C333" s="30">
+      <c r="C333" s="29">
         <v>5.2668350041820287E-4</v>
       </c>
-      <c r="D333" s="30">
+      <c r="D333" s="29">
         <v>0.12762021206565699</v>
       </c>
-      <c r="E333" s="30">
+      <c r="E333" s="29">
         <v>0.90014472772323084</v>
       </c>
-      <c r="F333" s="30">
+      <c r="F333" s="29">
         <v>-1.0553838423997103E-3</v>
       </c>
-      <c r="G333" s="30">
+      <c r="G333" s="29">
         <v>1.1898147624294173E-3</v>
       </c>
-      <c r="H333" s="30">
+      <c r="H333" s="29">
         <v>-1.0553838423997103E-3</v>
       </c>
-      <c r="I333" s="30">
+      <c r="I333" s="29">
         <v>1.1898147624294173E-3</v>
       </c>
     </row>
@@ -53583,48 +53559,48 @@
     </row>
     <row r="339" spans="1:6" ht="15" thickBot="1"/>
     <row r="340" spans="1:6">
-      <c r="A340" s="32" t="s">
+      <c r="A340" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B340" s="32"/>
+      <c r="B340" s="31"/>
     </row>
     <row r="341" spans="1:6">
-      <c r="A341" s="29" t="s">
+      <c r="A341" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B341" s="29">
+      <c r="B341" s="28">
         <v>2.9977264501226477E-2</v>
       </c>
     </row>
     <row r="342" spans="1:6">
-      <c r="A342" s="29" t="s">
+      <c r="A342" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B342" s="29">
+      <c r="B342" s="28">
         <v>8.9863638697649303E-4</v>
       </c>
     </row>
     <row r="343" spans="1:6">
-      <c r="A343" s="29" t="s">
+      <c r="A343" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B343" s="29">
+      <c r="B343" s="28">
         <v>-6.5708121187225077E-2</v>
       </c>
     </row>
     <row r="344" spans="1:6">
-      <c r="A344" s="29" t="s">
+      <c r="A344" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B344" s="29">
+      <c r="B344" s="28">
         <v>2.5256676462184557E-4</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="15" thickBot="1">
-      <c r="A345" s="30" t="s">
+      <c r="A345" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B345" s="30">
+      <c r="B345" s="29">
         <v>17</v>
       </c>
     </row>
@@ -53634,156 +53610,156 @@
       </c>
     </row>
     <row r="348" spans="1:6">
-      <c r="A348" s="31"/>
-      <c r="B348" s="31" t="s">
+      <c r="A348" s="30"/>
+      <c r="B348" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C348" s="31" t="s">
+      <c r="C348" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D348" s="31" t="s">
+      <c r="D348" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E348" s="31" t="s">
+      <c r="E348" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F348" s="31" t="s">
+      <c r="F348" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="349" spans="1:6">
-      <c r="A349" s="29" t="s">
+      <c r="A349" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B349" s="29">
+      <c r="B349" s="28">
         <v>1</v>
       </c>
-      <c r="C349" s="29">
+      <c r="C349" s="28">
         <v>8.6063322679930762E-10</v>
       </c>
-      <c r="D349" s="29">
+      <c r="D349" s="28">
         <v>8.6063322679930762E-10</v>
       </c>
-      <c r="E349" s="29">
+      <c r="E349" s="28">
         <v>1.3491669910149731E-2</v>
       </c>
-      <c r="F349" s="29">
+      <c r="F349" s="28">
         <v>0.90907158463338167</v>
       </c>
     </row>
     <row r="350" spans="1:6">
-      <c r="A350" s="29" t="s">
+      <c r="A350" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B350" s="29">
+      <c r="B350" s="28">
         <v>15</v>
       </c>
-      <c r="C350" s="29">
+      <c r="C350" s="28">
         <v>9.5684955887320127E-7</v>
       </c>
-      <c r="D350" s="29">
+      <c r="D350" s="28">
         <v>6.3789970591546755E-8</v>
       </c>
-      <c r="E350" s="29"/>
-      <c r="F350" s="29"/>
+      <c r="E350" s="28"/>
+      <c r="F350" s="28"/>
     </row>
     <row r="351" spans="1:6" ht="15" thickBot="1">
-      <c r="A351" s="30" t="s">
+      <c r="A351" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B351" s="30">
+      <c r="B351" s="29">
         <v>16</v>
       </c>
-      <c r="C351" s="30">
+      <c r="C351" s="29">
         <v>9.5771019210000058E-7</v>
       </c>
-      <c r="D351" s="30"/>
-      <c r="E351" s="30"/>
-      <c r="F351" s="30"/>
+      <c r="D351" s="29"/>
+      <c r="E351" s="29"/>
+      <c r="F351" s="29"/>
     </row>
     <row r="352" spans="1:6" ht="15" thickBot="1"/>
     <row r="353" spans="1:9">
-      <c r="A353" s="31"/>
-      <c r="B353" s="31" t="s">
+      <c r="A353" s="30"/>
+      <c r="B353" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C353" s="31" t="s">
+      <c r="C353" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D353" s="31" t="s">
+      <c r="D353" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E353" s="31" t="s">
+      <c r="E353" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F353" s="31" t="s">
+      <c r="F353" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G353" s="31" t="s">
+      <c r="G353" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H353" s="31" t="s">
+      <c r="H353" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I353" s="31" t="s">
+      <c r="I353" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="354" spans="1:9">
-      <c r="A354" s="29" t="s">
+      <c r="A354" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B354" s="29">
+      <c r="B354" s="28">
         <v>3.8849717998199553E-4</v>
       </c>
-      <c r="C354" s="29">
+      <c r="C354" s="28">
         <v>1.1739675287460164E-4</v>
       </c>
-      <c r="D354" s="29">
+      <c r="D354" s="28">
         <v>3.3092668278225053</v>
       </c>
-      <c r="E354" s="29">
+      <c r="E354" s="28">
         <v>4.767450182158928E-3</v>
       </c>
-      <c r="F354" s="29">
+      <c r="F354" s="28">
         <v>1.3827192557756135E-4</v>
       </c>
-      <c r="G354" s="29">
+      <c r="G354" s="28">
         <v>6.387224343864297E-4</v>
       </c>
-      <c r="H354" s="29">
+      <c r="H354" s="28">
         <v>1.3827192557756135E-4</v>
       </c>
-      <c r="I354" s="29">
+      <c r="I354" s="28">
         <v>6.387224343864297E-4</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="15" thickBot="1">
-      <c r="A355" s="30">
+      <c r="A355" s="29">
         <v>0.72607473</v>
       </c>
-      <c r="B355" s="30">
+      <c r="B355" s="29">
         <v>1.1367636427632086E-5</v>
       </c>
-      <c r="C355" s="30">
+      <c r="C355" s="29">
         <v>9.7867235661595954E-5</v>
       </c>
-      <c r="D355" s="30">
+      <c r="D355" s="29">
         <v>0.11615364785553922</v>
       </c>
-      <c r="E355" s="30">
+      <c r="E355" s="29">
         <v>0.90907158463338722</v>
       </c>
-      <c r="F355" s="30">
+      <c r="F355" s="29">
         <v>-1.9723143758116563E-4</v>
       </c>
-      <c r="G355" s="30">
+      <c r="G355" s="29">
         <v>2.1996671043642981E-4</v>
       </c>
-      <c r="H355" s="30">
+      <c r="H355" s="29">
         <v>-1.9723143758116563E-4</v>
       </c>
-      <c r="I355" s="30">
+      <c r="I355" s="29">
         <v>2.1996671043642981E-4</v>
       </c>
     </row>
@@ -53794,10 +53770,10 @@
     </row>
     <row r="359" spans="1:9" ht="15" thickBot="1"/>
     <row r="360" spans="1:9">
-      <c r="A360" s="32" t="s">
+      <c r="A360" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B360" s="32"/>
+      <c r="B360" s="31"/>
       <c r="C360" t="s">
         <v>94</v>
       </c>
@@ -53806,42 +53782,42 @@
       </c>
     </row>
     <row r="361" spans="1:9">
-      <c r="A361" s="29" t="s">
+      <c r="A361" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B361" s="29">
+      <c r="B361" s="28">
         <v>3.9986477363428183E-2</v>
       </c>
     </row>
     <row r="362" spans="1:9">
-      <c r="A362" s="29" t="s">
+      <c r="A362" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B362" s="29">
+      <c r="B362" s="28">
         <v>1.5989183719359542E-3</v>
       </c>
     </row>
     <row r="363" spans="1:9">
-      <c r="A363" s="29" t="s">
+      <c r="A363" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B363" s="29">
+      <c r="B363" s="28">
         <v>-6.4961153736601648E-2</v>
       </c>
     </row>
     <row r="364" spans="1:9">
-      <c r="A364" s="29" t="s">
+      <c r="A364" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B364" s="29">
+      <c r="B364" s="28">
         <v>2.524782355872629E-4</v>
       </c>
     </row>
     <row r="365" spans="1:9" ht="15" thickBot="1">
-      <c r="A365" s="30" t="s">
+      <c r="A365" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B365" s="30">
+      <c r="B365" s="29">
         <v>17</v>
       </c>
     </row>
@@ -53851,156 +53827,156 @@
       </c>
     </row>
     <row r="368" spans="1:9">
-      <c r="A368" s="31"/>
-      <c r="B368" s="31" t="s">
+      <c r="A368" s="30"/>
+      <c r="B368" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C368" s="31" t="s">
+      <c r="C368" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D368" s="31" t="s">
+      <c r="D368" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E368" s="31" t="s">
+      <c r="E368" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F368" s="31" t="s">
+      <c r="F368" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="369" spans="1:9">
-      <c r="A369" s="29" t="s">
+      <c r="A369" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B369" s="29">
+      <c r="B369" s="28">
         <v>1</v>
       </c>
-      <c r="C369" s="29">
+      <c r="C369" s="28">
         <v>1.531300421139003E-9</v>
       </c>
-      <c r="D369" s="29">
+      <c r="D369" s="28">
         <v>1.531300421139003E-9</v>
       </c>
-      <c r="E369" s="29">
+      <c r="E369" s="28">
         <v>2.4022185092117149E-2</v>
       </c>
-      <c r="F369" s="29">
+      <c r="F369" s="28">
         <v>0.87889480951595611</v>
       </c>
     </row>
     <row r="370" spans="1:9">
-      <c r="A370" s="29" t="s">
+      <c r="A370" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B370" s="29">
+      <c r="B370" s="28">
         <v>15</v>
       </c>
-      <c r="C370" s="29">
+      <c r="C370" s="28">
         <v>9.5617889167886157E-7</v>
       </c>
-      <c r="D370" s="29">
+      <c r="D370" s="28">
         <v>6.3745259445257433E-8</v>
       </c>
-      <c r="E370" s="29"/>
-      <c r="F370" s="29"/>
+      <c r="E370" s="28"/>
+      <c r="F370" s="28"/>
     </row>
     <row r="371" spans="1:9" ht="15" thickBot="1">
-      <c r="A371" s="30" t="s">
+      <c r="A371" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B371" s="30">
+      <c r="B371" s="29">
         <v>16</v>
       </c>
-      <c r="C371" s="30">
+      <c r="C371" s="29">
         <v>9.5771019210000058E-7</v>
       </c>
-      <c r="D371" s="30"/>
-      <c r="E371" s="30"/>
-      <c r="F371" s="30"/>
+      <c r="D371" s="29"/>
+      <c r="E371" s="29"/>
+      <c r="F371" s="29"/>
     </row>
     <row r="372" spans="1:9" ht="15" thickBot="1"/>
     <row r="373" spans="1:9">
-      <c r="A373" s="31"/>
-      <c r="B373" s="31" t="s">
+      <c r="A373" s="30"/>
+      <c r="B373" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C373" s="31" t="s">
+      <c r="C373" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D373" s="31" t="s">
+      <c r="D373" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E373" s="31" t="s">
+      <c r="E373" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F373" s="31" t="s">
+      <c r="F373" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G373" s="31" t="s">
+      <c r="G373" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H373" s="31" t="s">
+      <c r="H373" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I373" s="31" t="s">
+      <c r="I373" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="374" spans="1:9">
-      <c r="A374" s="29" t="s">
+      <c r="A374" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B374" s="29">
+      <c r="B374" s="28">
         <v>3.6308179850525797E-4</v>
       </c>
-      <c r="C374" s="29">
+      <c r="C374" s="28">
         <v>2.467519343007163E-4</v>
       </c>
-      <c r="D374" s="29">
+      <c r="D374" s="28">
         <v>1.471444588810277</v>
       </c>
-      <c r="E374" s="29">
+      <c r="E374" s="28">
         <v>0.16183849882525547</v>
       </c>
-      <c r="F374" s="29">
+      <c r="F374" s="28">
         <v>-1.6285749728714693E-4</v>
       </c>
-      <c r="G374" s="29">
+      <c r="G374" s="28">
         <v>8.8902109429766282E-4</v>
       </c>
-      <c r="H374" s="29">
+      <c r="H374" s="28">
         <v>-1.6285749728714693E-4</v>
       </c>
-      <c r="I374" s="29">
+      <c r="I374" s="28">
         <v>8.8902109429766282E-4</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="15" thickBot="1">
-      <c r="A375" s="30">
+      <c r="A375" s="29">
         <v>2</v>
       </c>
-      <c r="B375" s="30">
+      <c r="B375" s="29">
         <v>1.7317534644382769E-5</v>
       </c>
-      <c r="C375" s="30">
+      <c r="C375" s="29">
         <v>1.1173257577274035E-4</v>
       </c>
-      <c r="D375" s="30">
+      <c r="D375" s="29">
         <v>0.15499091938599849</v>
       </c>
-      <c r="E375" s="30">
+      <c r="E375" s="29">
         <v>0.87889480951595611</v>
       </c>
-      <c r="F375" s="30">
+      <c r="F375" s="29">
         <v>-2.2083481210630283E-4</v>
       </c>
-      <c r="G375" s="30">
+      <c r="G375" s="29">
         <v>2.5546988139506834E-4</v>
       </c>
-      <c r="H375" s="30">
+      <c r="H375" s="29">
         <v>-2.2083481210630283E-4</v>
       </c>
-      <c r="I375" s="30">
+      <c r="I375" s="29">
         <v>2.5546988139506834E-4</v>
       </c>
     </row>
@@ -54011,10 +53987,10 @@
     </row>
     <row r="380" spans="1:9" ht="15" thickBot="1"/>
     <row r="381" spans="1:9">
-      <c r="A381" s="32" t="s">
+      <c r="A381" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B381" s="32"/>
+      <c r="B381" s="31"/>
       <c r="C381" t="s">
         <v>95</v>
       </c>
@@ -54023,42 +53999,42 @@
       </c>
     </row>
     <row r="382" spans="1:9">
-      <c r="A382" s="29" t="s">
+      <c r="A382" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B382" s="29">
+      <c r="B382" s="28">
         <v>2.3720275128692684E-3</v>
       </c>
     </row>
     <row r="383" spans="1:9">
-      <c r="A383" s="29" t="s">
+      <c r="A383" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B383" s="29">
+      <c r="B383" s="28">
         <v>5.6265145218087664E-6</v>
       </c>
     </row>
     <row r="384" spans="1:9">
-      <c r="A384" s="29" t="s">
+      <c r="A384" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B384" s="29">
+      <c r="B384" s="28">
         <v>-6.6660665051176737E-2</v>
       </c>
     </row>
     <row r="385" spans="1:9">
-      <c r="A385" s="29" t="s">
+      <c r="A385" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B385" s="29">
+      <c r="B385" s="28">
         <v>2.5267961315068497E-4</v>
       </c>
     </row>
     <row r="386" spans="1:9" ht="15" thickBot="1">
-      <c r="A386" s="30" t="s">
+      <c r="A386" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B386" s="30">
+      <c r="B386" s="29">
         <v>17</v>
       </c>
     </row>
@@ -54068,156 +54044,156 @@
       </c>
     </row>
     <row r="389" spans="1:9">
-      <c r="A389" s="31"/>
-      <c r="B389" s="31" t="s">
+      <c r="A389" s="30"/>
+      <c r="B389" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C389" s="31" t="s">
+      <c r="C389" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D389" s="31" t="s">
+      <c r="D389" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E389" s="31" t="s">
+      <c r="E389" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F389" s="31" t="s">
+      <c r="F389" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="390" spans="1:9">
-      <c r="A390" s="29" t="s">
+      <c r="A390" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B390" s="29">
+      <c r="B390" s="28">
         <v>1</v>
       </c>
-      <c r="C390" s="29">
+      <c r="C390" s="28">
         <v>5.3885703035349165E-12</v>
       </c>
-      <c r="D390" s="29">
+      <c r="D390" s="28">
         <v>5.3885703035349165E-12</v>
       </c>
-      <c r="E390" s="29">
+      <c r="E390" s="28">
         <v>8.4398192694788295E-5</v>
       </c>
-      <c r="F390" s="29">
+      <c r="F390" s="28">
         <v>0.99279112971910932</v>
       </c>
     </row>
     <row r="391" spans="1:9">
-      <c r="A391" s="29" t="s">
+      <c r="A391" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B391" s="29">
+      <c r="B391" s="28">
         <v>15</v>
       </c>
-      <c r="C391" s="29">
+      <c r="C391" s="28">
         <v>9.5770480352969704E-7</v>
       </c>
-      <c r="D391" s="29">
+      <c r="D391" s="28">
         <v>6.3846986901979807E-8</v>
       </c>
-      <c r="E391" s="29"/>
-      <c r="F391" s="29"/>
+      <c r="E391" s="28"/>
+      <c r="F391" s="28"/>
     </row>
     <row r="392" spans="1:9" ht="15" thickBot="1">
-      <c r="A392" s="30" t="s">
+      <c r="A392" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B392" s="30">
+      <c r="B392" s="29">
         <v>16</v>
       </c>
-      <c r="C392" s="30">
+      <c r="C392" s="29">
         <v>9.5771019210000058E-7</v>
       </c>
-      <c r="D392" s="30"/>
-      <c r="E392" s="30"/>
-      <c r="F392" s="30"/>
+      <c r="D392" s="29"/>
+      <c r="E392" s="29"/>
+      <c r="F392" s="29"/>
     </row>
     <row r="393" spans="1:9" ht="15" thickBot="1"/>
     <row r="394" spans="1:9">
-      <c r="A394" s="31"/>
-      <c r="B394" s="31" t="s">
+      <c r="A394" s="30"/>
+      <c r="B394" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C394" s="31" t="s">
+      <c r="C394" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D394" s="31" t="s">
+      <c r="D394" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E394" s="31" t="s">
+      <c r="E394" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F394" s="31" t="s">
+      <c r="F394" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G394" s="31" t="s">
+      <c r="G394" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H394" s="31" t="s">
+      <c r="H394" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I394" s="31" t="s">
+      <c r="I394" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="395" spans="1:9">
-      <c r="A395" s="29" t="s">
+      <c r="A395" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B395" s="29">
+      <c r="B395" s="28">
         <v>3.984215459309055E-4</v>
       </c>
-      <c r="C395" s="29">
+      <c r="C395" s="28">
         <v>1.9577904009943068E-4</v>
       </c>
-      <c r="D395" s="29">
+      <c r="D395" s="28">
         <v>2.0350572039200845</v>
       </c>
-      <c r="E395" s="29">
+      <c r="E395" s="28">
         <v>5.9914261513350095E-2</v>
       </c>
-      <c r="F395" s="29">
+      <c r="F395" s="28">
         <v>-1.887159818410967E-5</v>
       </c>
-      <c r="G395" s="29">
+      <c r="G395" s="28">
         <v>8.1571469004592073E-4</v>
       </c>
-      <c r="H395" s="29">
+      <c r="H395" s="28">
         <v>-1.887159818410967E-5</v>
       </c>
-      <c r="I395" s="29">
+      <c r="I395" s="28">
         <v>8.1571469004592073E-4</v>
       </c>
     </row>
     <row r="396" spans="1:9" ht="15" thickBot="1">
-      <c r="A396" s="30">
+      <c r="A396" s="29">
         <v>11</v>
       </c>
-      <c r="B396" s="30">
+      <c r="B396" s="29">
         <v>1.3207201842438691E-7</v>
       </c>
-      <c r="C396" s="30">
+      <c r="C396" s="29">
         <v>1.4376204493715641E-5</v>
       </c>
-      <c r="D396" s="30">
+      <c r="D396" s="29">
         <v>9.186848898964978E-3</v>
       </c>
-      <c r="E396" s="30">
+      <c r="E396" s="29">
         <v>0.99279112971918049</v>
       </c>
-      <c r="F396" s="30">
+      <c r="F396" s="29">
         <v>-3.0510082374488355E-5</v>
       </c>
-      <c r="G396" s="30">
+      <c r="G396" s="29">
         <v>3.0774226411337128E-5</v>
       </c>
-      <c r="H396" s="30">
+      <c r="H396" s="29">
         <v>-3.0510082374488355E-5</v>
       </c>
-      <c r="I396" s="30">
+      <c r="I396" s="29">
         <v>3.0774226411337128E-5</v>
       </c>
     </row>
@@ -54245,221 +54221,221 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="28"/>
-    <col min="2" max="2" width="16.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="20" width="12.5" style="28"/>
-    <col min="21" max="21" width="22.33203125" style="28" customWidth="1"/>
-    <col min="22" max="38" width="12.5" style="28"/>
-    <col min="39" max="39" width="15" style="28" customWidth="1"/>
-    <col min="40" max="40" width="18.33203125" style="28" customWidth="1"/>
-    <col min="41" max="16384" width="12.5" style="28"/>
+    <col min="1" max="1" width="12.5" style="27"/>
+    <col min="2" max="2" width="16.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="20" width="12.5" style="27"/>
+    <col min="21" max="21" width="22.33203125" style="27" customWidth="1"/>
+    <col min="22" max="38" width="12.5" style="27"/>
+    <col min="39" max="39" width="15" style="27" customWidth="1"/>
+    <col min="40" max="40" width="18.33203125" style="27" customWidth="1"/>
+    <col min="41" max="16384" width="12.5" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A1" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>661</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>662</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>663</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>665</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AB1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AE1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AF1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AG1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AH1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AI1" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AK1" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="AL1" s="21" t="s">
+      <c r="AL1" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AM1" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="AN1" s="22" t="s">
+      <c r="AN1" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="AO1" s="21" t="s">
+      <c r="AO1" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="AP1" s="21" t="s">
+      <c r="AP1" s="20" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A2" s="20">
+    <row r="2" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A2" s="19">
         <v>19</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>567</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>26</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>0</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <v>49303</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="19">
         <v>14.129986485569098</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <v>95.14</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="19">
         <v>9.5793099999999995</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="19">
         <v>0.15859890586495448</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="19">
         <v>0.52568000000000004</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2" s="19">
         <v>1.8488068788427654E-4</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2" s="19">
         <v>5.8915766294011709E-3</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2" s="19">
         <v>1.1110286819038943E-2</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2" s="19">
         <v>4.6018091672906727E-3</v>
       </c>
-      <c r="W2" s="20">
+      <c r="W2" s="19">
         <v>7.8533828373981811E-3</v>
       </c>
-      <c r="X2" s="20">
+      <c r="X2" s="19">
         <v>5.2535734901125626E-4</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AF2" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="AG2" s="20" t="s">
+      <c r="AG2" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AH2" s="19" t="s">
         <v>433</v>
       </c>
       <c r="AI2" s="11">
@@ -54477,7 +54453,7 @@
       <c r="AM2" s="11">
         <v>0.72607473</v>
       </c>
-      <c r="AN2" s="23">
+      <c r="AN2" s="22">
         <v>0.72607473</v>
       </c>
       <c r="AO2" s="11">
@@ -54487,80 +54463,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A3" s="20">
+    <row r="3" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A3" s="19">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>673</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>674</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>64</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>1</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>676</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>58463</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <v>31.274330110664767</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="19">
         <v>92.53</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="19">
         <v>8.6174400000000002</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="19">
         <v>0.123028543866084</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3" s="19">
         <v>0.25503999999999999</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="Q3" s="19">
         <v>2.9940493701780652E-4</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3" s="19">
         <v>1.3657087597527588E-2</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="26">
         <v>1.2993954244204802E-2</v>
       </c>
-      <c r="T3" s="27">
+      <c r="T3" s="26">
         <v>7.371137230773572E-3</v>
       </c>
-      <c r="W3" s="20">
+      <c r="W3" s="19">
         <v>7.2728352742866421E-3</v>
       </c>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AE3" s="19" t="s">
         <v>675</v>
       </c>
-      <c r="AF3" s="20" t="s">
+      <c r="AF3" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="AG3" s="20" t="s">
+      <c r="AG3" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="AH3" s="20" t="s">
+      <c r="AH3" s="19" t="s">
         <v>423</v>
       </c>
       <c r="AI3" s="11">
@@ -54578,7 +54554,7 @@
       <c r="AM3" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="AN3" s="23">
+      <c r="AN3" s="22">
         <v>0</v>
       </c>
       <c r="AO3" s="11">
@@ -54588,83 +54564,83 @@
         <v>615</v>
       </c>
     </row>
-    <row r="4" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A4" s="20">
+    <row r="4" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A4" s="19">
         <v>43</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>5</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>1</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>50837</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>43.173487053006944</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="19">
         <v>94.96</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="19">
         <v>9.6590500000000006</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="19">
         <v>0.16178588691872828</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="19">
         <v>0.29091</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="19">
         <v>4.3902968862910666E-4</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="19">
         <v>6.5959660894183781E-3</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="19">
         <v>1.3989510741452075E-2</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="19">
         <v>7.4424547918843708E-3</v>
       </c>
-      <c r="W4" s="20">
+      <c r="W4" s="19">
         <v>9.4965554257582154E-3</v>
       </c>
-      <c r="X4" s="20">
+      <c r="X4" s="19">
         <v>9.8669736798892333E-4</v>
       </c>
-      <c r="Y4" s="20" t="s">
+      <c r="Y4" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="Z4" s="20" t="s">
+      <c r="Z4" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="AE4" s="20" t="s">
+      <c r="AE4" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="AF4" s="20" t="s">
+      <c r="AF4" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="AG4" s="20" t="s">
+      <c r="AG4" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AH4" s="20" t="s">
+      <c r="AH4" s="19" t="s">
         <v>427</v>
       </c>
       <c r="AI4" s="11">
@@ -54682,7 +54658,7 @@
       <c r="AM4" s="11">
         <v>2.6789258999999999</v>
       </c>
-      <c r="AN4" s="23">
+      <c r="AN4" s="22">
         <v>2.6789258999999999</v>
       </c>
       <c r="AO4" s="11">
@@ -54692,65 +54668,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A5" s="20">
+    <row r="5" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A5" s="19">
         <v>44</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>74</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>0</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>6.1224478134537677</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="19">
         <v>78.25</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="26">
         <v>3.8817146848608433E-4</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="19">
         <v>3.2529270809168878E-3</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="19">
         <v>4.7833390993062812E-3</v>
       </c>
-      <c r="T5" s="27">
+      <c r="T5" s="26">
         <v>7.371137230773572E-3</v>
       </c>
-      <c r="W5" s="20">
+      <c r="W5" s="19">
         <v>3.1591945216612764E-3</v>
       </c>
-      <c r="Y5" s="20" t="s">
+      <c r="Y5" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z5" s="20" t="s">
+      <c r="Z5" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AA5" s="20" t="s">
+      <c r="AA5" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="AE5" s="20" t="s">
+      <c r="AE5" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="AF5" s="20" t="s">
+      <c r="AF5" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="AG5" s="20" t="s">
+      <c r="AG5" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AH5" s="20" t="s">
+      <c r="AH5" s="19" t="s">
         <v>648</v>
       </c>
       <c r="AI5" s="11">
@@ -54768,87 +54744,87 @@
       <c r="AM5" s="11">
         <v>1.5542468340000002</v>
       </c>
-      <c r="AN5" s="23">
+      <c r="AN5" s="22">
         <v>1.2952056950000002</v>
       </c>
       <c r="AO5" s="11">
         <v>14.5</v>
       </c>
-      <c r="AP5" s="18">
+      <c r="AP5" s="17">
         <v>-236.5</v>
       </c>
     </row>
-    <row r="6" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A6" s="20">
+    <row r="6" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A6" s="19">
         <v>69</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>70</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>0</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>3.7990980461361725</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="19">
         <v>66.760000000000005</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <v>5.6128299999999998</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="19">
         <v>4.3967783513657328E-2</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="19">
         <v>0.29164000000000001</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="26">
         <v>3.8817146848608433E-4</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="19">
         <v>2.5876503359339863E-3</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6" s="19">
         <v>7.0224728747568183E-3</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="26">
         <v>7.371137230773572E-3</v>
       </c>
-      <c r="W6" s="20">
+      <c r="W6" s="19">
         <v>3.746440466711987E-3</v>
       </c>
-      <c r="Y6" s="20" t="s">
+      <c r="Y6" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z6" s="20" t="s">
+      <c r="Z6" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AA6" s="20" t="s">
+      <c r="AA6" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="AC6" s="20" t="s">
+      <c r="AC6" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AE6" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="AF6" s="20" t="s">
+      <c r="AF6" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="AG6" s="20" t="s">
+      <c r="AG6" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AH6" s="20" t="s">
+      <c r="AH6" s="19" t="s">
         <v>648</v>
       </c>
       <c r="AI6" s="11">
@@ -54866,7 +54842,7 @@
       <c r="AM6" s="11">
         <v>1.4584862873867934</v>
       </c>
-      <c r="AN6" s="23">
+      <c r="AN6" s="22">
         <v>1.4584862873867934</v>
       </c>
       <c r="AO6" s="11">
@@ -54876,86 +54852,86 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A7" s="20">
+    <row r="7" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A7" s="19">
         <v>82</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>4</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>0</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>49274</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>10.454389431305882</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <v>79.98</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="19">
         <v>7.4600200000000001</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="19">
         <v>8.7031009352394315E-2</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="19">
         <v>0.17399999999999999</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="19">
         <v>1.8080866947930434E-4</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="19">
         <v>4.605547499037568E-3</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="19">
         <v>9.846131894478357E-3</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="19">
         <v>5.4880167152064176E-3</v>
       </c>
-      <c r="V7" s="20" t="e">
+      <c r="V7" s="19" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="W7" s="20">
+      <c r="W7" s="19">
         <v>6.5413153648337377E-3</v>
       </c>
-      <c r="X7" s="20">
+      <c r="X7" s="19">
         <v>2.6651901745932039E-4</v>
       </c>
-      <c r="Y7" s="20" t="s">
+      <c r="Y7" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z7" s="20" t="s">
+      <c r="Z7" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="AA7" s="20" t="s">
+      <c r="AA7" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="AE7" s="20" t="s">
+      <c r="AE7" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="AF7" s="20" t="s">
+      <c r="AF7" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="AG7" s="20" t="s">
+      <c r="AG7" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="AH7" s="20" t="s">
+      <c r="AH7" s="19" t="s">
         <v>433</v>
       </c>
       <c r="AI7" s="11">
@@ -54973,7 +54949,7 @@
       <c r="AM7" s="11">
         <v>1.2870153290657438</v>
       </c>
-      <c r="AN7" s="24">
+      <c r="AN7" s="23">
         <v>1.1115132387385969</v>
       </c>
       <c r="AO7" s="11">
@@ -54983,86 +54959,86 @@
         <v>7.4090909090909092</v>
       </c>
     </row>
-    <row r="8" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A8" s="20">
+    <row r="8" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A8" s="19">
         <v>102</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>17</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <v>0</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>32584</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>4.9501274462151406</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <v>63.12</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="19">
         <v>9.4302700000000002</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <v>0.15274111110006061</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="19">
         <v>0.42</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="19">
         <v>1.3952307074025693E-4</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="19">
         <v>2.9512762480856367E-3</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="19">
         <v>4.6476103432372962E-3</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="19">
         <v>2.1081157249300052E-3</v>
       </c>
-      <c r="V8" s="20" t="e">
+      <c r="V8" s="19" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="W8" s="20">
+      <c r="W8" s="19">
         <v>3.6046894171382782E-3</v>
       </c>
-      <c r="X8" s="20">
+      <c r="X8" s="19">
         <v>1.1385997036121899E-3</v>
       </c>
-      <c r="Y8" s="20" t="s">
+      <c r="Y8" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z8" s="20" t="s">
+      <c r="Z8" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AA8" s="20" t="s">
+      <c r="AA8" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="AE8" s="20" t="s">
+      <c r="AE8" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="AF8" s="20" t="s">
+      <c r="AF8" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="AG8" s="20" t="s">
+      <c r="AG8" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="AH8" s="20" t="s">
+      <c r="AH8" s="19" t="s">
         <v>423</v>
       </c>
       <c r="AI8" s="11">
@@ -55080,7 +55056,7 @@
       <c r="AM8" s="11">
         <v>2.31086978</v>
       </c>
-      <c r="AN8" s="23">
+      <c r="AN8" s="22">
         <v>1.15543489</v>
       </c>
       <c r="AO8" s="11">
@@ -55090,80 +55066,80 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="9" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A9" s="20">
+    <row r="9" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A9" s="19">
         <v>105</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>72</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <v>0</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>11.198327399551303</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="19">
         <v>83.95</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="19">
         <v>9.0631400000000006</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="19">
         <v>0.13885671694971891</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="19">
         <v>0.32607000000000003</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="19">
         <v>3.9509422698142971E-4</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="19">
         <v>5.8721228033434833E-3</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9" s="19">
         <v>7.6876977747739102E-3</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="19">
         <v>7.3194151373721858E-3</v>
       </c>
-      <c r="W9" s="20">
+      <c r="W9" s="19">
         <v>8.8530451640663546E-3</v>
       </c>
-      <c r="X9" s="20">
+      <c r="X9" s="19">
         <v>2.0385749007368528E-3</v>
       </c>
-      <c r="Y9" s="20" t="s">
+      <c r="Y9" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z9" s="20" t="s">
+      <c r="Z9" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AA9" s="20" t="s">
+      <c r="AA9" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AC9" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AE9" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="AF9" s="20" t="s">
+      <c r="AF9" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AG9" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AH9" s="20" t="s">
+      <c r="AH9" s="19" t="s">
         <v>648</v>
       </c>
       <c r="AI9" s="11">
@@ -55181,7 +55157,7 @@
       <c r="AM9" s="11">
         <v>1.4773286885714285</v>
       </c>
-      <c r="AN9" s="24">
+      <c r="AN9" s="23">
         <v>1.4773286885714285</v>
       </c>
       <c r="AO9" s="11">
@@ -55191,89 +55167,89 @@
         <v>1.1428571428571428</v>
       </c>
     </row>
-    <row r="10" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A10" s="20">
+    <row r="10" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A10" s="19">
         <v>121</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>14</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <v>0</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>50831</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <v>12.864948057678429</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="19">
         <v>79.58</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="19">
         <v>7.5987799999999996</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="19">
         <v>9.0966886481780876E-2</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="19">
         <v>0.28671000000000002</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="19">
         <v>2.9915518673491053E-4</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="19">
         <v>3.6393157725442674E-3</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="19">
         <v>6.4772606650427495E-3</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="19">
         <v>3.0986055908412157E-3</v>
       </c>
-      <c r="W10" s="20">
+      <c r="W10" s="19">
         <v>6.7917334763455094E-3</v>
       </c>
-      <c r="X10" s="20">
+      <c r="X10" s="19">
         <v>1.0802591248508886E-3</v>
       </c>
-      <c r="Y10" s="20" t="s">
+      <c r="Y10" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z10" s="20" t="s">
+      <c r="Z10" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AA10" s="20" t="s">
+      <c r="AA10" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="AB10" s="20" t="s">
+      <c r="AB10" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="AD10" s="20" t="s">
+      <c r="AD10" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AE10" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="AF10" s="20" t="s">
+      <c r="AF10" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AG10" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AH10" s="20" t="s">
+      <c r="AH10" s="19" t="s">
         <v>648</v>
       </c>
       <c r="AI10" s="11">
@@ -55291,7 +55267,7 @@
       <c r="AM10" s="11">
         <v>1.509263198976474</v>
       </c>
-      <c r="AN10" s="23">
+      <c r="AN10" s="22">
         <v>1.509263198976474</v>
       </c>
       <c r="AO10" s="11">
@@ -55301,89 +55277,89 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A11" s="20">
+    <row r="11" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A11" s="19">
         <v>123</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>631</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>60</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <v>0</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>676</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>11746</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <v>21.804409697135679</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="19">
         <v>70.540000000000006</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="19">
         <v>6.7164700000000002</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="19">
         <v>6.7645144717382394E-2</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="19">
         <v>0.37596000000000002</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="19">
         <v>3.304381379104404E-4</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="19">
         <v>4.3689425200904028E-3</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="19">
         <v>7.4098185061705589E-3</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="19">
         <v>6.6522724571384823E-3</v>
       </c>
-      <c r="W11" s="20">
+      <c r="W11" s="19">
         <v>7.6140191690528573E-3</v>
       </c>
-      <c r="X11" s="20">
+      <c r="X11" s="19">
         <v>1.1988273253129239E-3</v>
       </c>
-      <c r="Y11" s="20" t="s">
+      <c r="Y11" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z11" s="20" t="s">
+      <c r="Z11" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AA11" s="20" t="s">
+      <c r="AA11" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="AC11" s="20" t="s">
+      <c r="AC11" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="AD11" s="20" t="s">
+      <c r="AD11" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="AE11" s="20" t="s">
+      <c r="AE11" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="AF11" s="20" t="s">
+      <c r="AF11" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="AG11" s="20" t="s">
+      <c r="AG11" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AH11" s="20" t="s">
+      <c r="AH11" s="19" t="s">
         <v>648</v>
       </c>
       <c r="AI11" s="9">
@@ -55411,80 +55387,80 @@
         <v>5.1818181818181817</v>
       </c>
     </row>
-    <row r="12" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A12" s="20">
+    <row r="12" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A12" s="19">
         <v>160</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>670</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>671</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>33</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <v>1</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <v>49330</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <v>22.174032029355882</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="19">
         <v>124.56</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="19">
         <v>9.1005099999999999</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="19">
         <v>0.14023479854277121</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="19">
         <v>0.45296999999999998</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="19">
         <v>2.5744175432439946E-4</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="19">
         <v>4.6592977676692847E-3</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="19">
         <v>1.0197405023402672E-2</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12" s="19">
         <v>7.5557975015028422E-3</v>
       </c>
-      <c r="W12" s="20">
+      <c r="W12" s="19">
         <v>1.0086005707725118E-2</v>
       </c>
-      <c r="Y12" s="20" t="s">
+      <c r="Y12" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z12" s="20" t="s">
+      <c r="Z12" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AA12" s="20" t="s">
+      <c r="AA12" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="AE12" s="20" t="s">
+      <c r="AE12" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="AF12" s="20" t="s">
+      <c r="AF12" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="AG12" s="20" t="s">
+      <c r="AG12" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AH12" s="20" t="s">
+      <c r="AH12" s="19" t="s">
         <v>648</v>
       </c>
       <c r="AI12" s="11">
@@ -55502,7 +55478,7 @@
       <c r="AM12" s="11">
         <v>1.1538352266666667</v>
       </c>
-      <c r="AN12" s="23">
+      <c r="AN12" s="22">
         <v>1.1538352266666667</v>
       </c>
       <c r="AO12" s="11">
@@ -55512,80 +55488,80 @@
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A13" s="20">
+    <row r="13" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A13" s="19">
         <v>190</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>31</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <v>1</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>50844</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>37.70317496957616</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="19">
         <v>84.4</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="19">
         <v>8.9074399999999994</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="19">
         <v>0.13320024191050225</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="19">
         <v>0.45684999999999998</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="19">
         <v>1.0224465659593742E-3</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="19">
         <v>6.957584676355863E-3</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13" s="19">
         <v>1.3814755705507846E-2</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13" s="19">
         <v>1.1184374371533027E-2</v>
       </c>
-      <c r="W13" s="20">
+      <c r="W13" s="19">
         <v>1.1682248539888479E-2</v>
       </c>
-      <c r="Y13" s="20" t="s">
+      <c r="Y13" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z13" s="20" t="s">
+      <c r="Z13" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AA13" s="20" t="s">
+      <c r="AA13" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="AE13" s="20" t="s">
+      <c r="AE13" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="AF13" s="20" t="s">
+      <c r="AF13" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="AG13" s="20" t="s">
+      <c r="AG13" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AH13" s="20" t="s">
+      <c r="AH13" s="19" t="s">
         <v>648</v>
       </c>
       <c r="AI13" s="11">
@@ -55613,83 +55589,83 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A14" s="20">
+    <row r="14" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A14" s="19">
         <v>201</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>25</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>0</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>50847</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <v>28.690400871580128</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="19">
         <v>73.59</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <v>8.2074800000000003</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <v>0.10944643994715435</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="19">
         <v>0.29114000000000001</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="19">
         <v>7.5734935744608384E-4</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="19">
         <v>5.5017884671681866E-3</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="19">
         <v>1.4627766925226019E-2</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14" s="19">
         <v>6.008579275819553E-3</v>
       </c>
-      <c r="V14" s="20" t="e">
+      <c r="V14" s="19" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="W14" s="20">
+      <c r="W14" s="19">
         <v>9.1106099564722438E-3</v>
       </c>
-      <c r="Y14" s="20" t="s">
+      <c r="Y14" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z14" s="20" t="s">
+      <c r="Z14" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AA14" s="20" t="s">
+      <c r="AA14" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="AE14" s="20" t="s">
+      <c r="AE14" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="AF14" s="20" t="s">
+      <c r="AF14" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="AG14" s="20" t="s">
+      <c r="AG14" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AH14" s="20" t="s">
+      <c r="AH14" s="19" t="s">
         <v>648</v>
       </c>
       <c r="AI14" s="11">
@@ -55717,86 +55693,86 @@
         <v>2.2307692307692308</v>
       </c>
     </row>
-    <row r="15" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A15" s="20">
+    <row r="15" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A15" s="19">
         <v>206</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>628</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>27</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <v>0</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>49263</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <v>43.254956888301422</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="19">
         <v>75.599999999999994</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="19">
         <v>8.3690800000000003</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="19">
         <v>0.11468973950558826</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="19">
         <v>0.39218999999999998</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="19">
         <v>6.0681892689332215E-4</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="19">
         <v>6.3126385835704504E-3</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="19">
         <v>1.5589525591136025E-2</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15" s="19">
         <v>7.5329246677834924E-3</v>
       </c>
-      <c r="V15" s="20" t="e">
+      <c r="V15" s="19" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="W15" s="20">
+      <c r="W15" s="19">
         <v>9.9652728638512551E-3</v>
       </c>
-      <c r="X15" s="20">
+      <c r="X15" s="19">
         <v>5.2572095071470924E-4</v>
       </c>
-      <c r="Y15" s="20" t="s">
+      <c r="Y15" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z15" s="20" t="s">
+      <c r="Z15" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="AA15" s="20" t="s">
+      <c r="AA15" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="AE15" s="20" t="s">
+      <c r="AE15" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="AF15" s="20" t="s">
+      <c r="AF15" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="AG15" s="20" t="s">
+      <c r="AG15" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="AH15" s="20" t="s">
+      <c r="AH15" s="19" t="s">
         <v>433</v>
       </c>
       <c r="AI15" s="11">
@@ -55823,89 +55799,89 @@
       <c r="AP15" s="11">
         <v>19</v>
       </c>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-    </row>
-    <row r="16" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A16" s="20">
+      <c r="AQ15" s="24"/>
+      <c r="AR15" s="24"/>
+    </row>
+    <row r="16" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A16" s="19">
         <v>207</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>682</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>9</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <v>0</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>49266</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <v>5.2937628596316637</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="19">
         <v>79.14</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="19">
         <v>8.1241500000000002</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="19">
         <v>0.1067984820833035</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16" s="19">
         <v>0.51214000000000004</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="19">
         <v>7.360225887496498E-5</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="19">
         <v>6.8797899908951445E-3</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16" s="19">
         <v>1.0568039248255343E-2</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16" s="19">
         <v>3.9692044453030666E-3</v>
       </c>
-      <c r="V16" s="20" t="e">
+      <c r="V16" s="19" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="W16" s="20">
+      <c r="W16" s="19">
         <v>5.5462837352318745E-3</v>
       </c>
-      <c r="X16" s="20">
+      <c r="X16" s="19">
         <v>1.5684178030170873E-4</v>
       </c>
-      <c r="Y16" s="20" t="s">
+      <c r="Y16" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z16" s="20" t="s">
+      <c r="Z16" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="AA16" s="20" t="s">
+      <c r="AA16" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="AE16" s="20" t="s">
+      <c r="AE16" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="AF16" s="20" t="s">
+      <c r="AF16" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="AG16" s="20" t="s">
+      <c r="AG16" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="AH16" s="20" t="s">
+      <c r="AH16" s="19" t="s">
         <v>433</v>
       </c>
       <c r="AI16" s="11">
@@ -55932,95 +55908,95 @@
       <c r="AP16" s="11">
         <v>5</v>
       </c>
-      <c r="AQ16" s="25"/>
-      <c r="AR16" s="25"/>
-    </row>
-    <row r="17" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A17" s="20">
+      <c r="AQ16" s="24"/>
+      <c r="AR16" s="24"/>
+    </row>
+    <row r="17" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A17" s="19">
         <v>220</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <v>5.6441357940886663</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="19">
         <v>66.711111111111109</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="19">
         <v>0.1123</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="19">
         <v>0.32023921213352818</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="19">
         <v>6.8944444444444448</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="19">
         <v>5.7833333333333334E-2</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="19">
         <v>5.9385505482753356E-2</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="19">
         <v>2.4972827617665929E-4</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="19">
         <v>9.402112300615998E-3</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="19">
         <v>1.7659052759764125E-2</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17" s="19">
         <v>6.9620270473078599E-3</v>
       </c>
-      <c r="U17" s="20">
+      <c r="U17" s="19">
         <v>5.970275767378205E-3</v>
       </c>
-      <c r="V17" s="20">
+      <c r="V17" s="19">
         <v>5.1459287665800817E-5</v>
       </c>
-      <c r="W17" s="20">
+      <c r="W17" s="19">
         <v>4.4906717333560589E-3</v>
       </c>
-      <c r="X17" s="20">
+      <c r="X17" s="19">
         <v>4.5422772359799465E-3</v>
       </c>
-      <c r="Y17" s="27" t="s">
+      <c r="Y17" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="Z17" s="27" t="s">
+      <c r="Z17" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="AA17" s="27" t="s">
+      <c r="AA17" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="AB17" s="27" t="s">
+      <c r="AB17" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27" t="s">
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="AF17" s="27" t="s">
+      <c r="AF17" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
       <c r="AI17" s="11">
         <v>4.1255555555555548</v>
       </c>
@@ -56045,75 +56021,75 @@
       <c r="AP17" s="11">
         <v>9.1052631578947363</v>
       </c>
-      <c r="AQ17" s="25"/>
-      <c r="AR17" s="25"/>
-    </row>
-    <row r="18" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A18" s="20">
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="24"/>
+    </row>
+    <row r="18" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A18" s="19">
         <v>221</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <v>8.7221802521404506</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="19">
         <v>72.358333333333334</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="19">
         <v>1.4119999999999999E-2</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="19">
         <v>0.22877963413894067</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="19">
         <v>7.3316666666666661</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="19">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="19">
         <v>7.607406120223982E-2</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="19">
         <v>2.7280909925365488E-4</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="19">
         <v>1.0925708757606942E-2</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18" s="19">
         <v>2.475006644557845E-2</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18" s="19">
         <v>9.3832808379410385E-3</v>
       </c>
-      <c r="U18" s="20">
+      <c r="U18" s="19">
         <v>7.5317912360624512E-3</v>
       </c>
-      <c r="V18" s="20">
+      <c r="V18" s="19">
         <v>1.6938106231339608E-4</v>
       </c>
-      <c r="W18" s="20">
+      <c r="W18" s="19">
         <v>6.9955673595204632E-3</v>
       </c>
-      <c r="X18" s="20">
+      <c r="X18" s="19">
         <v>3.2676914703159065E-3</v>
       </c>
-      <c r="Y18" s="27"/>
-      <c r="AB18" s="27" t="s">
+      <c r="Y18" s="26"/>
+      <c r="AB18" s="26" t="s">
         <v>402</v>
       </c>
       <c r="AI18" s="11">
@@ -56140,75 +56116,75 @@
       <c r="AP18" s="11">
         <v>3.3333333333333335</v>
       </c>
-      <c r="AQ18" s="25"/>
-      <c r="AR18" s="25"/>
-    </row>
-    <row r="19" spans="1:44" s="20" customFormat="1" ht="14">
-      <c r="A19" s="20">
+      <c r="AQ18" s="24"/>
+      <c r="AR18" s="24"/>
+    </row>
+    <row r="19" spans="1:44" s="19" customFormat="1" ht="14">
+      <c r="A19" s="19">
         <v>222</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <v>22.934639109412267</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="19">
         <v>105.3875</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="19">
         <v>0.18325</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="19">
         <v>0.56209186043516635</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="19">
         <v>9.67</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="19">
         <v>0.1515</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="19">
         <v>0.15480629350709096</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="19">
         <v>7.022126514713606E-4</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="19">
         <v>2.3588778684674388E-2</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19" s="19">
         <v>4.0716481734354167E-2</v>
       </c>
-      <c r="T19" s="20">
+      <c r="T19" s="19">
         <v>2.1260180729749344E-2</v>
       </c>
-      <c r="U19" s="20">
+      <c r="U19" s="19">
         <v>2.1109711924310864E-2</v>
       </c>
-      <c r="V19" s="20">
+      <c r="V19" s="19">
         <v>2.9170106667601703E-4</v>
       </c>
-      <c r="W19" s="20">
+      <c r="W19" s="19">
         <v>1.3604913012345284E-2</v>
       </c>
-      <c r="X19" s="20">
+      <c r="X19" s="19">
         <v>1.1300407286332123E-2</v>
       </c>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27" t="s">
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26" t="s">
         <v>219</v>
       </c>
       <c r="AI19" s="11">
@@ -56235,308 +56211,308 @@
       <c r="AP19" s="11">
         <v>5.2857142857142856</v>
       </c>
-      <c r="AQ19" s="25"/>
-      <c r="AR19" s="25"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="Q22" s="36"/>
+      <c r="Q22" s="35"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="S23" s="28">
+      <c r="S23" s="27">
         <f>AVERAGE(S2:S19)</f>
         <v>1.2993954244204802E-2</v>
       </c>
-      <c r="T23" s="28">
+      <c r="T23" s="27">
         <f>AVERAGE(T2:T19)</f>
         <v>7.3711372307735711E-3</v>
       </c>
     </row>
     <row r="26" spans="1:44" ht="14">
-      <c r="AN26" s="23"/>
-      <c r="AO26" s="20"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="19"/>
     </row>
     <row r="27" spans="1:44" ht="14">
-      <c r="AN27" s="23"/>
-      <c r="AO27" s="20"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="19"/>
     </row>
     <row r="28" spans="1:44" ht="16">
-      <c r="U28" s="35" t="s">
+      <c r="U28" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="AN28" s="23"/>
-      <c r="AO28" s="20"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="19"/>
     </row>
     <row r="29" spans="1:44" ht="14">
-      <c r="AN29" s="23"/>
-      <c r="AO29" s="20"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="19"/>
     </row>
     <row r="30" spans="1:44" ht="14">
-      <c r="N30" s="20"/>
+      <c r="N30" s="19"/>
       <c r="O30" s="11"/>
-      <c r="AN30" s="23">
+      <c r="AN30" s="22">
         <v>0.72607473</v>
       </c>
-      <c r="AO30" s="20">
+      <c r="AO30" s="19">
         <v>1.11102868190389E-2</v>
       </c>
     </row>
     <row r="31" spans="1:44" ht="14">
-      <c r="N31" s="20"/>
+      <c r="N31" s="19"/>
       <c r="O31" s="11"/>
-      <c r="AN31" s="23">
+      <c r="AN31" s="22">
         <v>0</v>
       </c>
-      <c r="AO31" s="27">
+      <c r="AO31" s="26">
         <v>1.2993954244204801E-2</v>
       </c>
     </row>
     <row r="32" spans="1:44" ht="14">
-      <c r="N32" s="20"/>
+      <c r="N32" s="19"/>
       <c r="O32" s="11"/>
-      <c r="AN32" s="23">
+      <c r="AN32" s="22">
         <v>2.6789258999999999</v>
       </c>
-      <c r="AO32" s="20">
+      <c r="AO32" s="19">
         <v>1.3989510741452075E-2</v>
       </c>
     </row>
     <row r="33" spans="14:41" ht="14">
-      <c r="N33" s="20"/>
+      <c r="N33" s="19"/>
       <c r="O33" s="11"/>
       <c r="AJ33" s="11">
         <v>2</v>
       </c>
-      <c r="AK33" s="20">
+      <c r="AK33" s="19">
         <v>5.8915766294011709E-3</v>
       </c>
-      <c r="AN33" s="23">
+      <c r="AN33" s="22">
         <v>1.2952056950000002</v>
       </c>
-      <c r="AO33" s="20">
+      <c r="AO33" s="19">
         <v>4.7833390993062804E-3</v>
       </c>
     </row>
     <row r="34" spans="14:41" ht="14">
-      <c r="N34" s="20"/>
+      <c r="N34" s="19"/>
       <c r="O34" s="11"/>
       <c r="AJ34" s="11">
         <v>1</v>
       </c>
-      <c r="AK34" s="20">
+      <c r="AK34" s="19">
         <v>1.3657087597527588E-2</v>
       </c>
-      <c r="AN34" s="23">
+      <c r="AN34" s="22">
         <v>1.4584862873867934</v>
       </c>
-      <c r="AO34" s="20">
+      <c r="AO34" s="19">
         <v>7.0224728747568183E-3</v>
       </c>
     </row>
     <row r="35" spans="14:41" ht="14">
-      <c r="N35" s="20"/>
+      <c r="N35" s="19"/>
       <c r="O35" s="11"/>
       <c r="AJ35" s="11">
         <v>3</v>
       </c>
-      <c r="AK35" s="20">
+      <c r="AK35" s="19">
         <v>6.5959660894183781E-3</v>
       </c>
-      <c r="AN35" s="24">
+      <c r="AN35" s="23">
         <v>1.1115132387385969</v>
       </c>
-      <c r="AO35" s="20">
+      <c r="AO35" s="19">
         <v>9.846131894478357E-3</v>
       </c>
     </row>
     <row r="36" spans="14:41" ht="14">
-      <c r="N36" s="20"/>
+      <c r="N36" s="19"/>
       <c r="O36" s="11"/>
       <c r="AJ36" s="11">
         <v>2.6666666666666665</v>
       </c>
-      <c r="AK36" s="20">
+      <c r="AK36" s="19">
         <v>3.2529270809168878E-3</v>
       </c>
-      <c r="AN36" s="23">
+      <c r="AN36" s="22">
         <v>1.15543489</v>
       </c>
-      <c r="AO36" s="20">
+      <c r="AO36" s="19">
         <v>4.6476103432372962E-3</v>
       </c>
     </row>
     <row r="37" spans="14:41" ht="14">
-      <c r="N37" s="20"/>
+      <c r="N37" s="19"/>
       <c r="O37" s="11"/>
       <c r="AJ37" s="11">
         <v>2.6666666666666665</v>
       </c>
-      <c r="AK37" s="20">
+      <c r="AK37" s="19">
         <v>2.5876503359339863E-3</v>
       </c>
-      <c r="AN37" s="24">
+      <c r="AN37" s="23">
         <v>1.4773286885714285</v>
       </c>
-      <c r="AO37" s="20">
+      <c r="AO37" s="19">
         <v>7.6876977747739102E-3</v>
       </c>
     </row>
     <row r="38" spans="14:41" ht="14">
-      <c r="N38" s="20"/>
+      <c r="N38" s="19"/>
       <c r="O38" s="11"/>
       <c r="AJ38" s="11">
         <v>2.1363636363636362</v>
       </c>
-      <c r="AK38" s="20">
+      <c r="AK38" s="19">
         <v>4.605547499037568E-3</v>
       </c>
-      <c r="AN38" s="23">
+      <c r="AN38" s="22">
         <v>1.509263198976474</v>
       </c>
-      <c r="AO38" s="20">
+      <c r="AO38" s="19">
         <v>6.4772606650427495E-3</v>
       </c>
     </row>
     <row r="39" spans="14:41" ht="14">
-      <c r="N39" s="20"/>
+      <c r="N39" s="19"/>
       <c r="O39" s="16"/>
       <c r="AJ39" s="11">
         <v>2.25</v>
       </c>
-      <c r="AK39" s="20">
+      <c r="AK39" s="19">
         <v>2.9512762480856367E-3</v>
       </c>
       <c r="AN39" s="5">
         <v>1.147486982029307</v>
       </c>
-      <c r="AO39" s="20">
+      <c r="AO39" s="19">
         <v>7.4098185061705589E-3</v>
       </c>
     </row>
     <row r="40" spans="14:41" ht="14">
-      <c r="N40" s="20"/>
+      <c r="N40" s="19"/>
       <c r="O40" s="11"/>
       <c r="AJ40" s="11">
         <v>2.4285714285714284</v>
       </c>
-      <c r="AK40" s="20">
+      <c r="AK40" s="19">
         <v>5.8721228033434833E-3</v>
       </c>
-      <c r="AN40" s="23">
+      <c r="AN40" s="22">
         <v>1.1538352266666667</v>
       </c>
-      <c r="AO40" s="20">
+      <c r="AO40" s="19">
         <v>1.0197405023402672E-2</v>
       </c>
     </row>
     <row r="41" spans="14:41" ht="14">
-      <c r="N41" s="20"/>
+      <c r="N41" s="19"/>
       <c r="O41" s="16"/>
       <c r="AJ41" s="11">
         <v>2.6</v>
       </c>
-      <c r="AK41" s="20">
+      <c r="AK41" s="19">
         <v>3.6393157725442674E-3</v>
       </c>
       <c r="AN41" s="6">
         <v>0.87343909666666664</v>
       </c>
-      <c r="AO41" s="20">
+      <c r="AO41" s="19">
         <v>1.3814755705507846E-2</v>
       </c>
     </row>
     <row r="42" spans="14:41" ht="14">
-      <c r="N42" s="20"/>
+      <c r="N42" s="19"/>
       <c r="O42" s="16"/>
       <c r="AJ42" s="9">
         <v>2.2272727272727275</v>
       </c>
-      <c r="AK42" s="20">
+      <c r="AK42" s="19">
         <v>4.3689425200904028E-3</v>
       </c>
       <c r="AN42" s="6">
         <v>1.2390534853846151</v>
       </c>
-      <c r="AO42" s="20">
+      <c r="AO42" s="19">
         <v>1.4627766925226019E-2</v>
       </c>
     </row>
     <row r="43" spans="14:41" ht="14">
-      <c r="N43" s="20"/>
+      <c r="N43" s="19"/>
       <c r="O43" s="16"/>
       <c r="AJ43" s="11">
         <v>2.3333333333333335</v>
       </c>
-      <c r="AK43" s="20">
+      <c r="AK43" s="19">
         <v>4.6592977676692847E-3</v>
       </c>
       <c r="AN43" s="6">
         <v>0</v>
       </c>
-      <c r="AO43" s="20">
+      <c r="AO43" s="19">
         <v>1.5589525591136025E-2</v>
       </c>
     </row>
     <row r="44" spans="14:41" ht="14">
-      <c r="N44" s="20"/>
+      <c r="N44" s="19"/>
       <c r="O44" s="16"/>
       <c r="AJ44" s="11">
         <v>2.3333333333333335</v>
       </c>
-      <c r="AK44" s="20">
+      <c r="AK44" s="19">
         <v>6.957584676355863E-3</v>
       </c>
       <c r="AN44" s="6">
         <v>0.363037365</v>
       </c>
-      <c r="AO44" s="20">
+      <c r="AO44" s="19">
         <v>1.0568039248255343E-2</v>
       </c>
     </row>
     <row r="45" spans="14:41" ht="14">
-      <c r="N45" s="20"/>
+      <c r="N45" s="19"/>
       <c r="O45" s="16"/>
       <c r="AJ45" s="11">
         <v>2.5384615384615383</v>
       </c>
-      <c r="AK45" s="20">
+      <c r="AK45" s="19">
         <v>5.5017884671681866E-3</v>
       </c>
       <c r="AN45" s="6">
         <v>0.3549601461743645</v>
       </c>
-      <c r="AO45" s="20">
+      <c r="AO45" s="19">
         <v>1.7659052759764125E-2</v>
       </c>
     </row>
     <row r="46" spans="14:41" ht="14">
-      <c r="N46" s="20"/>
+      <c r="N46" s="19"/>
       <c r="O46" s="16"/>
       <c r="AJ46" s="11">
         <v>1</v>
       </c>
-      <c r="AK46" s="20">
+      <c r="AK46" s="19">
         <v>6.3126385835704504E-3</v>
       </c>
       <c r="AN46" s="12">
         <v>0.78535108281054899</v>
       </c>
-      <c r="AO46" s="20">
+      <c r="AO46" s="19">
         <v>2.475006644557845E-2</v>
       </c>
     </row>
     <row r="47" spans="14:41" ht="14">
-      <c r="N47" s="20"/>
+      <c r="N47" s="19"/>
       <c r="O47" s="16"/>
       <c r="AJ47" s="11">
         <v>2</v>
       </c>
-      <c r="AK47" s="20">
+      <c r="AK47" s="19">
         <v>6.8797899908951445E-3</v>
       </c>
       <c r="AN47" s="10">
         <v>0.79287945104321988</v>
       </c>
-      <c r="AO47" s="20">
+      <c r="AO47" s="19">
         <v>4.0716481734354167E-2</v>
       </c>
     </row>
@@ -56544,7 +56520,7 @@
       <c r="AJ48" s="11">
         <v>1.4736842105263157</v>
       </c>
-      <c r="AK48" s="20">
+      <c r="AK48" s="19">
         <v>9.402112300615998E-3</v>
       </c>
     </row>
@@ -56552,7 +56528,7 @@
       <c r="AJ49" s="11">
         <v>2</v>
       </c>
-      <c r="AK49" s="20">
+      <c r="AK49" s="19">
         <v>1.0925708757606942E-2</v>
       </c>
     </row>
@@ -56560,7 +56536,7 @@
       <c r="AJ50" s="11">
         <v>1.7142857142857142</v>
       </c>
-      <c r="AK50" s="20">
+      <c r="AK50" s="19">
         <v>2.3588778684674388E-2</v>
       </c>
     </row>
@@ -56663,7 +56639,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>547</v>
       </c>
       <c r="B4" s="11">
@@ -56750,7 +56726,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>550</v>
       </c>
       <c r="B7" s="11">
@@ -56866,7 +56842,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>613</v>
       </c>
       <c r="B11" s="11">
@@ -57533,7 +57509,7 @@
       </c>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>577</v>
       </c>
       <c r="B34" s="11">
@@ -57562,7 +57538,7 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>578</v>
       </c>
       <c r="B35" s="11">
@@ -57899,7 +57875,7 @@
       <c r="S45" s="5"/>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>345</v>
       </c>
       <c r="B46" s="11">
@@ -58044,7 +58020,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="17" t="s">
         <v>349</v>
       </c>
       <c r="B51" s="11">
@@ -58102,7 +58078,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
         <v>351</v>
       </c>
       <c r="B53" s="11">
@@ -58189,7 +58165,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="17" t="s">
         <v>129</v>
       </c>
       <c r="B56" s="11">
@@ -58218,7 +58194,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="17" t="s">
         <v>130</v>
       </c>
       <c r="B57" s="11">
@@ -58450,7 +58426,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="17" t="s">
         <v>641</v>
       </c>
       <c r="B65" s="11">
@@ -58682,7 +58658,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="17" t="s">
         <v>509</v>
       </c>
       <c r="B73" s="11">
@@ -58769,7 +58745,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="17" t="s">
         <v>512</v>
       </c>
       <c r="B76" s="11">
@@ -58924,30 +58900,30 @@
       <c r="B2" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="42" t="s">
+      <c r="I2" s="42"/>
+      <c r="J2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="42" t="s">
+      <c r="K2" s="42"/>
+      <c r="L2" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="42" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="42" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="42" t="s">
+      <c r="Q2" s="42"/>
+      <c r="R2" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="S2" s="43"/>
+      <c r="S2" s="42"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
@@ -59479,7 +59455,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>192</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -59515,8 +59491,8 @@
         <f>PEARSON(Combined!AI2:AI283,Combined!AJ2:AJ283)</f>
         <v>0.96424839635083015</v>
       </c>
-      <c r="D2" s="37">
-        <f>PEARSON(Combined!AI2:AI284,Combined!AK2:AK284)</f>
+      <c r="D2" s="36">
+        <f>PEARSON(Combined!AI2:AI283,Combined!AK2:AK283)</f>
         <v>5.7625144910572412E-2</v>
       </c>
       <c r="E2">
@@ -59548,13 +59524,13 @@
         <f>PEARSON(Combined!AJ2:AJ283,Combined!AI2:AI283)</f>
         <v>0.96424839635083015</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="36">
         <f>PEARSON(Combined!AJ2:AJ283,Combined!AK2:AK283)</f>
         <v>0.15219662022471242</v>
       </c>
-      <c r="E3" t="e">
-        <f>PEARSON(Combined!AJ2:AJ284,Combined!AL2:AL283)</f>
-        <v>#N/A</v>
+      <c r="E3">
+        <f>PEARSON(Combined!AJ2:AJ283,Combined!AL2:AL283)</f>
+        <v>0.23829397279785733</v>
       </c>
       <c r="F3">
         <f>PEARSON(Combined!AJ2:AJ283,Combined!AM2:AM283)</f>
@@ -59568,9 +59544,9 @@
         <f>PEARSON(Combined!AJ2:AJ283,Combined!AO2:AO283)</f>
         <v>0.29274638080803211</v>
       </c>
-      <c r="I3" t="e">
-        <f>PEARSON(Combined!AJ2:AJ283,Combined!AP2:AP284)</f>
-        <v>#N/A</v>
+      <c r="I3">
+        <f>PEARSON(Combined!AJ2:AJ283,Combined!AP2:AP283)</f>
+        <v>0.35487981048231132</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -59585,7 +59561,7 @@
         <f>PEARSON(Combined!AK2:AK283,Combined!AJ2:AJ283)</f>
         <v>0.15219662022471242</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="36"/>
       <c r="E4">
         <f>PEARSON(Combined!AK2:AK283,Combined!AL2:AL283)</f>
         <v>0.59159522616220184</v>
@@ -59594,17 +59570,17 @@
         <f>PEARSON(Combined!AK2:AK282,Combined!AM2:AM282)</f>
         <v>0.6109672857040539</v>
       </c>
-      <c r="G4" t="e">
-        <f>PEARSON(Combined!AK2:AK284,Combined!AN2:AN283)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H4" t="e">
-        <f>PEARSON(Combined!AK2:AK283,Combined!AO2:AO284)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I4" t="e">
-        <f>PEARSON(Combined!AK2:AK283,Combined!AP2:AP284)</f>
-        <v>#N/A</v>
+      <c r="G4">
+        <f>PEARSON(Combined!AK2:AK283,Combined!AN2:AN283)</f>
+        <v>0.85472300186691663</v>
+      </c>
+      <c r="H4">
+        <f>PEARSON(Combined!AK2:AK283,Combined!AO2:AO283)</f>
+        <v>0.80997233677374325</v>
+      </c>
+      <c r="I4">
+        <f>PEARSON(Combined!AK2:AK283,Combined!AP2:AP283)</f>
+        <v>-0.24307168146774039</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -59619,11 +59595,11 @@
         <f>PEARSON(Combined!AL2:AL283,Combined!AJ2:AJ283)</f>
         <v>0.23829397279785733</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <f>PEARSON(Combined!AL2:AL283,Combined!AK2:AK283)</f>
         <v>0.59159522616220184</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="36"/>
       <c r="F5">
         <f>PEARSON(Combined!AL2:AL283,Combined!AM2:AM283)</f>
         <v>-7.5649526875755241E-3</v>
@@ -59632,9 +59608,9 @@
         <f>PEARSON(Combined!AL2:AL283,Combined!AN2:AN283)</f>
         <v>0.45210252549012292</v>
       </c>
-      <c r="H5" t="e">
-        <f>PEARSON(Combined!AL2:AL284,Combined!AO2:AO283)</f>
-        <v>#N/A</v>
+      <c r="H5">
+        <f>PEARSON(Combined!AL2:AL283,Combined!AO2:AO283)</f>
+        <v>0.5050824097339448</v>
       </c>
       <c r="I5">
         <f>PEARSON(Combined!AL2:AL283,Combined!AP2:AP283)</f>
@@ -59653,15 +59629,15 @@
         <f>PEARSON(Combined!AM2:AM283,Combined!AJ2:AJ283)</f>
         <v>-0.57090805217530138</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="36">
         <f>PEARSON(Combined!AM2:AM283,Combined!AK2:AK283)</f>
         <v>0.6109672857040539</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <f>PEARSON(Combined!AM2:AM283,Combined!AL2:AL283)</f>
         <v>-7.5649526875755241E-3</v>
       </c>
-      <c r="G6" s="37" t="e">
+      <c r="G6" s="36" t="e">
         <f>PEARSON(Combined!AM2:AM283,Combined!AN2:AN282)</f>
         <v>#N/A</v>
       </c>
@@ -59669,9 +59645,9 @@
         <f>PEARSON(Combined!AM2:AM282,Combined!AO2:AO283)</f>
         <v>#N/A</v>
       </c>
-      <c r="I6" t="e">
-        <f>PEARSON(Combined!AM2:AM283,Combined!AP2:AP284)</f>
-        <v>#N/A</v>
+      <c r="I6">
+        <f>PEARSON(Combined!AM2:AM283,Combined!AP2:AP283)</f>
+        <v>-0.24982832088988283</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -59682,11 +59658,11 @@
         <f>PEARSON(Combined!AN2:AN283,Combined!AI2:AI283)</f>
         <v>4.6208782140679049E-2</v>
       </c>
-      <c r="C7" t="e">
-        <f>PEARSON(Combined!AN2:AN284,Combined!AJ2:AJ283)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D7" s="37">
+      <c r="C7">
+        <f>PEARSON(Combined!AN2:AN283,Combined!AJ2:AJ283)</f>
+        <v>0.11004394315954424</v>
+      </c>
+      <c r="D7" s="36">
         <f>PEARSON(Combined!AN2:AN283,Combined!AK2:AK283)</f>
         <v>0.85472300186691663</v>
       </c>
@@ -59698,14 +59674,14 @@
         <f>PEARSON(Combined!AN2:AN283,Combined!AM2:AM283)</f>
         <v>0.81826333115086036</v>
       </c>
-      <c r="G7" s="37"/>
+      <c r="G7" s="36"/>
       <c r="H7">
         <f>PEARSON(Combined!AN2:AN282,Combined!AO2:AO282)</f>
         <v>0.68873561614818024</v>
       </c>
-      <c r="I7" t="e">
-        <f>PEARSON(Combined!AN2:AN283,Combined!AP2:AP284)</f>
-        <v>#N/A</v>
+      <c r="I7">
+        <f>PEARSON(Combined!AN2:AN283,Combined!AP2:AP283)</f>
+        <v>-0.22099588829953068</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -59720,7 +59696,7 @@
         <f>PEARSON(Combined!AO2:AO283,Combined!AJ2:AJ283)</f>
         <v>0.29274638080803211</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <f>PEARSON(Combined!AO2:AO283,Combined!AK2:AK283)</f>
         <v>0.80997233677374325</v>
       </c>
@@ -59753,23 +59729,23 @@
         <f>PEARSON(Combined!AP2:AP283,Combined!AJ2:AJ283)</f>
         <v>0.35487981048231132</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <f>PEARSON(Combined!AP2:AP282,Combined!AK2:AK282)</f>
         <v>-0.24307168146774039</v>
       </c>
-      <c r="E9" t="e">
-        <f>PEARSON(Combined!AP2:AP283,Combined!AL2:AL284)</f>
-        <v>#N/A</v>
+      <c r="E9">
+        <f>PEARSON(Combined!AP2:AP283,Combined!AL2:AL283)</f>
+        <v>-0.25411162002149168</v>
       </c>
       <c r="F9">
         <f>PEARSON(Combined!AP2:AP283,Combined!AM2:AM283)</f>
         <v>-0.24982832088988283</v>
       </c>
-      <c r="G9" t="e">
-        <f>PEARSON(Combined!AP2:AP284,Combined!AN2:AN283)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H9" s="37"/>
+      <c r="G9">
+        <f>PEARSON(Combined!AP2:AP283,Combined!AN2:AN283)</f>
+        <v>-0.22099588829953068</v>
+      </c>
+      <c r="H9" s="36"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/fixtures/Ciclid Brain and Social Data with Legend.xlsx
+++ b/fixtures/Ciclid Brain and Social Data with Legend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21721"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="24640" windowHeight="15620" tabRatio="890" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="24560" windowHeight="15620" tabRatio="890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Huber et al., 1997" sheetId="4" r:id="rId1"/>
@@ -2285,7 +2285,7 @@
       <name val="Arial Black"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2400,6 +2400,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2602,7 +2614,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2658,6 +2670,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2979,11 +2993,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="579567880"/>
-        <c:axId val="579573848"/>
+        <c:axId val="560797112"/>
+        <c:axId val="560803304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="579567880"/>
+        <c:axId val="560797112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3057,12 +3071,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579573848"/>
+        <c:crossAx val="560803304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="579573848"/>
+        <c:axId val="560803304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3146,7 +3160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579567880"/>
+        <c:crossAx val="560797112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -28933,10 +28947,10 @@
   <dimension ref="A1:AR283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D269" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A284" sqref="A284:XFD293"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -28965,103 +28979,103 @@
       <c r="A1" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="43" t="s">
         <v>661</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="44" t="s">
         <v>662</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="44" t="s">
         <v>663</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="44" t="s">
         <v>664</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="44" t="s">
         <v>665</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="44" t="s">
         <v>437</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="44" t="s">
         <v>417</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="44" t="s">
         <v>440</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AF1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AG1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AH1" s="44" t="s">
         <v>28</v>
       </c>
       <c r="AI1" s="14" t="s">

--- a/fixtures/Ciclid Brain and Social Data with Legend.xlsx
+++ b/fixtures/Ciclid Brain and Social Data with Legend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21721"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="24560" windowHeight="15620" tabRatio="890" activeTab="2"/>
+    <workbookView xWindow="16880" yWindow="500" windowWidth="31280" windowHeight="16060" tabRatio="890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Huber et al., 1997" sheetId="4" r:id="rId1"/>
@@ -2153,12 +2153,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="36"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
@@ -2184,12 +2178,6 @@
       <color indexed="56"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2284,8 +2272,22 @@
       <color indexed="10"/>
       <name val="Arial Black"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2411,6 +2413,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2560,7 +2568,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2590,78 +2598,77 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="39"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="37"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="37" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="39" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="37" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="37" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="39" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="39" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="40" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="40" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="40" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="40" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="40" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="40" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="40"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="38" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="38" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="38" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="38" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="38" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="38" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="38" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="38" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="38"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="40" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="40" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="38" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="38" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="39" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="37" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2670,10 +2677,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="1"/>
     <cellStyle name="20% - Accent2" xfId="2"/>
     <cellStyle name="20% - Accent3" xfId="3"/>
@@ -2702,24 +2708,26 @@
     <cellStyle name="Calculation" xfId="26"/>
     <cellStyle name="Check Cell" xfId="27"/>
     <cellStyle name="Explanatory Text" xfId="28"/>
-    <cellStyle name="Followed Hyperlink_Data Consilidation.xls" xfId="29"/>
-    <cellStyle name="Good" xfId="30"/>
-    <cellStyle name="Heading 1" xfId="31"/>
-    <cellStyle name="Heading 2" xfId="32"/>
-    <cellStyle name="Heading 3" xfId="33"/>
-    <cellStyle name="Heading 4" xfId="34"/>
-    <cellStyle name="Hyperlink_Data Consilidation.xls" xfId="35"/>
-    <cellStyle name="Input" xfId="36"/>
-    <cellStyle name="Linked Cell" xfId="37"/>
-    <cellStyle name="Neutral" xfId="38"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="29"/>
+    <cellStyle name="Heading 1" xfId="30"/>
+    <cellStyle name="Heading 2" xfId="31"/>
+    <cellStyle name="Heading 3" xfId="32"/>
+    <cellStyle name="Heading 4" xfId="33"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Input" xfId="34"/>
+    <cellStyle name="Linked Cell" xfId="35"/>
+    <cellStyle name="Neutral" xfId="36"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Data Consilidation.xls" xfId="39"/>
-    <cellStyle name="Normal_TOTAL DATA.xls" xfId="40"/>
-    <cellStyle name="Note" xfId="41"/>
-    <cellStyle name="Output" xfId="42"/>
-    <cellStyle name="Title" xfId="43"/>
-    <cellStyle name="Total" xfId="44"/>
-    <cellStyle name="Warning Text" xfId="45"/>
+    <cellStyle name="Normal_Data Consilidation.xls" xfId="37"/>
+    <cellStyle name="Normal_TOTAL DATA.xls" xfId="38"/>
+    <cellStyle name="Note" xfId="39"/>
+    <cellStyle name="Output" xfId="40"/>
+    <cellStyle name="Title" xfId="41"/>
+    <cellStyle name="Total" xfId="42"/>
+    <cellStyle name="Warning Text" xfId="43"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2993,11 +3001,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="560797112"/>
-        <c:axId val="560803304"/>
+        <c:axId val="620488984"/>
+        <c:axId val="620080936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="560797112"/>
+        <c:axId val="620488984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3071,12 +3079,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560803304"/>
+        <c:crossAx val="620080936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="560803304"/>
+        <c:axId val="620080936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3160,7 +3168,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560797112"/>
+        <c:crossAx val="620488984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -28950,7 +28958,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -28958,7 +28966,11 @@
     <col min="1" max="1" width="8.83203125" style="15"/>
     <col min="2" max="2" width="19.6640625" style="15" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="15" customWidth="1"/>
-    <col min="4" max="28" width="8.83203125" style="15"/>
+    <col min="4" max="18" width="8.83203125" style="15"/>
+    <col min="19" max="20" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="28" width="8.83203125" style="15"/>
     <col min="29" max="29" width="8.5" style="15" customWidth="1"/>
     <col min="30" max="33" width="8.83203125" style="15"/>
     <col min="34" max="34" width="11.6640625" style="15" customWidth="1"/>
@@ -28979,103 +28991,103 @@
       <c r="A1" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>661</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="40" t="s">
         <v>662</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="40" t="s">
         <v>663</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="40" t="s">
         <v>664</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="40" t="s">
         <v>665</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="40" t="s">
         <v>434</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="40" t="s">
         <v>436</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="46" t="s">
         <v>438</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="X1" s="46" t="s">
         <v>440</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="Y1" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="Z1" s="44" t="s">
+      <c r="Z1" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="AA1" s="44" t="s">
+      <c r="AA1" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AB1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AC1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AD1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AE1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AF1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="44" t="s">
+      <c r="AG1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="44" t="s">
+      <c r="AH1" s="40" t="s">
         <v>28</v>
       </c>
       <c r="AI1" s="14" t="s">
@@ -50064,7 +50076,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -50523,17 +50535,17 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="39"/>
+      <c r="B43" s="42"/>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1"/>
     <row r="45" spans="1:9">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="40"/>
+      <c r="B45" s="43"/>
       <c r="C45" t="s">
         <v>238</v>
       </c>
@@ -56555,7 +56567,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21"/>
+  <phoneticPr fontId="19"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -58875,7 +58887,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21"/>
+  <phoneticPr fontId="19"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -58914,30 +58926,30 @@
       <c r="B2" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="41" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="41" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="41" t="s">
+      <c r="M2" s="45"/>
+      <c r="N2" s="44" t="s">
         <v>491</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="41" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="41" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="S2" s="42"/>
+      <c r="S2" s="45"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
@@ -60683,7 +60695,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/fixtures/Ciclid Brain and Social Data with Legend.xlsx
+++ b/fixtures/Ciclid Brain and Social Data with Legend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21721"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16880" yWindow="500" windowWidth="31280" windowHeight="16060" tabRatio="890" activeTab="2"/>
+    <workbookView xWindow="16880" yWindow="500" windowWidth="31660" windowHeight="25140" tabRatio="890" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Huber et al., 1997" sheetId="4" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Legend" sheetId="5" r:id="rId8"/>
     <sheet name="Pearson's Correlations" sheetId="34" r:id="rId9"/>
     <sheet name="sheet 3" sheetId="3" r:id="rId10"/>
+    <sheet name="TestData" sheetId="35" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Pearson''s Correlations'!$A$1:$I$9</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7219" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7384" uniqueCount="684">
   <si>
     <t>Fatlipped Insectivore</t>
   </si>
@@ -2568,7 +2569,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2613,6 +2614,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2667,6 +2670,7 @@
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2677,9 +2681,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="1"/>
     <cellStyle name="20% - Accent2" xfId="2"/>
     <cellStyle name="20% - Accent3" xfId="3"/>
@@ -2710,6 +2713,7 @@
     <cellStyle name="Explanatory Text" xfId="28"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="29"/>
     <cellStyle name="Heading 1" xfId="30"/>
     <cellStyle name="Heading 2" xfId="31"/>
@@ -2717,6 +2721,7 @@
     <cellStyle name="Heading 4" xfId="33"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="34"/>
     <cellStyle name="Linked Cell" xfId="35"/>
     <cellStyle name="Neutral" xfId="36"/>
@@ -3001,11 +3006,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="620488984"/>
-        <c:axId val="620080936"/>
+        <c:axId val="112209480"/>
+        <c:axId val="113134744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="620488984"/>
+        <c:axId val="112209480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3079,12 +3084,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620080936"/>
+        <c:crossAx val="113134744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="620080936"/>
+        <c:axId val="113134744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3168,7 +3173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620488984"/>
+        <c:crossAx val="112209480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21019,6 +21024,1196 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>661</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>662</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>663</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>664</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="T1" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="X1" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y1" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z1" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA1" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB1" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="13"/>
+      <c r="B2" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="13"/>
+      <c r="B3" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="15">
+        <v>29</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15">
+        <v>12.322295614789493</v>
+      </c>
+      <c r="J4" s="15">
+        <v>69.05</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15">
+        <v>8.1667000000000005</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0.10814585673160364</v>
+      </c>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15">
+        <v>0.32573999999999997</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>4.0829897799209033E-4</v>
+      </c>
+      <c r="R4" s="15">
+        <v>2.4100060856861037E-3</v>
+      </c>
+      <c r="S4" s="15">
+        <v>6.1127083900873319E-3</v>
+      </c>
+      <c r="T4" s="15" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W4" s="15">
+        <v>4.2235215434520785E-3</v>
+      </c>
+      <c r="X4" s="15">
+        <v>4.6577284548102171E-4</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF4" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="15">
+        <v>54</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15">
+        <v>16.671034161982281</v>
+      </c>
+      <c r="J5" s="15">
+        <v>68.47</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15">
+        <v>7.6775700000000002</v>
+      </c>
+      <c r="N5" s="15">
+        <v>9.3247054797434073E-2</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15">
+        <v>0.67569000000000001</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>3.701734734000865E-4</v>
+      </c>
+      <c r="R5" s="15">
+        <v>4.1452234597834994E-3</v>
+      </c>
+      <c r="S5" s="15">
+        <v>8.3555377234440127E-3</v>
+      </c>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15">
+        <v>4.4125211072159583E-3</v>
+      </c>
+      <c r="X5" s="15">
+        <v>4.370398224672612E-4</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG5" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="15">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="15">
+        <v>65</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15">
+        <v>6.3873985956755845</v>
+      </c>
+      <c r="J6" s="15">
+        <v>85.34</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15">
+        <v>8.0916300000000003</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0.10577535173065575</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15">
+        <v>0.35011999999999999</v>
+      </c>
+      <c r="Q6" s="15" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R6" s="15">
+        <v>1.8655112240433475E-3</v>
+      </c>
+      <c r="S6" s="15">
+        <v>3.3848026866201922E-3</v>
+      </c>
+      <c r="T6" s="15">
+        <v>1.9846337960708867E-3</v>
+      </c>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15">
+        <v>2.160803865566979E-3</v>
+      </c>
+      <c r="X6" s="15">
+        <v>6.6078616768912933E-5</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF6" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG6" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AH6" s="15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="15">
+        <v>25</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15">
+        <v>5.8862686342018256</v>
+      </c>
+      <c r="J7" s="15">
+        <v>57.61</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15">
+        <v>5.3029999999999999</v>
+      </c>
+      <c r="N7" s="15">
+        <v>3.8366302360533809E-2</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15">
+        <v>3.9197755441064729E-3</v>
+      </c>
+      <c r="S7" s="15">
+        <v>8.8516786513094057E-3</v>
+      </c>
+      <c r="T7" s="15">
+        <v>5.9992958304727027E-3</v>
+      </c>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W7" s="15">
+        <v>3.9938405306974133E-3</v>
+      </c>
+      <c r="X7" s="15" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z7" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA7" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="AF7" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG7" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH7" s="15" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="15">
+        <v>58</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="H8" s="15">
+        <v>25019</v>
+      </c>
+      <c r="I8" s="15">
+        <v>8.4041542726555303</v>
+      </c>
+      <c r="J8" s="15">
+        <v>66.81</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15">
+        <v>7.953241345287243E-3</v>
+      </c>
+      <c r="S8" s="15">
+        <v>1.4796446604885728E-2</v>
+      </c>
+      <c r="T8" s="15">
+        <v>5.999713668485453E-3</v>
+      </c>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15">
+        <v>9.5746053037342183E-3</v>
+      </c>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z8" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA8" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="AF8" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="AG8" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH8" s="15" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="15">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="15">
+        <v>66</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="H9" s="15">
+        <v>25253</v>
+      </c>
+      <c r="I9" s="15">
+        <v>22.423802683523043</v>
+      </c>
+      <c r="J9" s="15">
+        <v>70.7</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15">
+        <v>8.3349899999999995</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0.11357172952737067</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15">
+        <v>0.40325</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>3.5973080989898886E-4</v>
+      </c>
+      <c r="R9" s="15">
+        <v>6.6096185898674026E-3</v>
+      </c>
+      <c r="S9" s="15">
+        <v>9.3355908171142161E-3</v>
+      </c>
+      <c r="T9" s="15">
+        <v>4.4564201588857075E-3</v>
+      </c>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15">
+        <v>2.1810943584757377E-4</v>
+      </c>
+      <c r="W9" s="15">
+        <v>6.8179223228907043E-3</v>
+      </c>
+      <c r="X9" s="15">
+        <v>7.2167854016910184E-4</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z9" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA9" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB9" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC9" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="AD9" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE9" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="AF9" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="AG9" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH9" s="15" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="15">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="15">
+        <v>59</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15">
+        <v>10.559694197054334</v>
+      </c>
+      <c r="J10" s="15">
+        <v>85.35</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15">
+        <v>9.1338699999999999</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0.14147171642170334</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15">
+        <v>3.782045953762948E-5</v>
+      </c>
+      <c r="R10" s="15">
+        <v>1.0699939648646321E-2</v>
+      </c>
+      <c r="S10" s="15">
+        <v>1.7295750612067E-2</v>
+      </c>
+      <c r="T10" s="15">
+        <v>8.5128878107509076E-3</v>
+      </c>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15">
+        <v>3.2135827935560315E-4</v>
+      </c>
+      <c r="W10" s="15">
+        <v>9.4623824140948835E-3</v>
+      </c>
+      <c r="X10" s="15">
+        <v>3.1926967554462069E-4</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z10" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA10" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB10" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF10" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG10" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH10" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="15">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="15">
+        <v>77</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15">
+        <v>84.909878354812875</v>
+      </c>
+      <c r="J11" s="15">
+        <v>71.33</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15">
+        <v>8.3052299999999999</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0.11260094458017346</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15">
+        <v>0.12504000000000001</v>
+      </c>
+      <c r="Q11" s="15" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R11" s="15">
+        <v>1.3768562612273551E-2</v>
+      </c>
+      <c r="S11" s="15">
+        <v>2.1858604119013254E-2</v>
+      </c>
+      <c r="T11" s="15">
+        <v>8.1597131567683317E-3</v>
+      </c>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W11" s="15" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X11" s="15">
+        <v>8.7074327881756538E-4</v>
+      </c>
+      <c r="Y11" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z11" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA11" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="AF11" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG11" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH11" s="15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="15">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="15">
+        <v>74</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15">
+        <v>28.365862998319251</v>
+      </c>
+      <c r="J12" s="15">
+        <v>131.63</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15">
+        <v>5.1116825638517728E-3</v>
+      </c>
+      <c r="S12" s="15">
+        <v>9.4909846429057174E-3</v>
+      </c>
+      <c r="T12" s="15">
+        <v>5.6665366388506753E-3</v>
+      </c>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15">
+        <v>1.2227565046980342E-3</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z12" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA12" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF12" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="AG12" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AH12" s="15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="15"/>
+      <c r="B13" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="15">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="E14" s="15">
+        <v>56</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="H14" s="15">
+        <v>265468</v>
+      </c>
+      <c r="I14" s="15">
+        <v>9.3002238819061951</v>
+      </c>
+      <c r="J14" s="15">
+        <v>102.01</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15">
+        <v>9.36843</v>
+      </c>
+      <c r="N14" s="15">
+        <v>0.15034825737271287</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15">
+        <v>0.32241999999999998</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>3.2859874024052023E-4</v>
+      </c>
+      <c r="R14" s="15">
+        <v>7.1510853919616044E-3</v>
+      </c>
+      <c r="S14" s="15">
+        <v>8.8527468615720029E-3</v>
+      </c>
+      <c r="T14" s="15">
+        <v>4.3129978472854396E-3</v>
+      </c>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W14" s="15">
+        <v>6.9801193344609241E-3</v>
+      </c>
+      <c r="X14" s="15">
+        <v>2.4857020048970485E-4</v>
+      </c>
+      <c r="Y14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z14" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA14" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB14" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF14" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG14" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AH14" s="15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" s="15">
+        <v>41</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="H15" s="15">
+        <v>261900</v>
+      </c>
+      <c r="I15" s="15">
+        <v>7.0087554701705255</v>
+      </c>
+      <c r="J15" s="15">
+        <v>68.02</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15">
+        <v>7.649</v>
+      </c>
+      <c r="N15" s="15">
+        <v>9.2416438149574509E-2</v>
+      </c>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15">
+        <v>0.33566000000000001</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>1.4087571934942152E-4</v>
+      </c>
+      <c r="R15" s="15">
+        <v>2.5364843371633622E-3</v>
+      </c>
+      <c r="S15" s="15">
+        <v>5.5159451781937032E-3</v>
+      </c>
+      <c r="T15" s="15">
+        <v>1.9662301714565176E-3</v>
+      </c>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15">
+        <v>3.44696864137495E-3</v>
+      </c>
+      <c r="X15" s="15">
+        <v>2.2433994774168512E-4</v>
+      </c>
+      <c r="Y15" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z15" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA15" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB15" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF15" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG15" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AH15" s="15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR115"/>
@@ -28954,11 +30149,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
+      <selection pane="bottomRight" sqref="A1:AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -29045,22 +30240,22 @@
       <c r="S1" s="40" t="s">
         <v>436</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="42" t="s">
         <v>437</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="V1" s="42" t="s">
         <v>438</v>
       </c>
       <c r="W1" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="X1" s="46" t="s">
+      <c r="X1" s="42" t="s">
         <v>440</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="42" t="s">
         <v>162</v>
       </c>
       <c r="Z1" s="40" t="s">
@@ -50535,17 +51730,17 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="42"/>
+      <c r="B43" s="43"/>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1"/>
     <row r="45" spans="1:9">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="43"/>
+      <c r="B45" s="44"/>
       <c r="C45" t="s">
         <v>238</v>
       </c>
@@ -58926,30 +60121,30 @@
       <c r="B2" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="44" t="s">
+      <c r="K2" s="46"/>
+      <c r="L2" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="44" t="s">
+      <c r="M2" s="46"/>
+      <c r="N2" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="44" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="44" t="s">
+      <c r="Q2" s="46"/>
+      <c r="R2" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="S2" s="45"/>
+      <c r="S2" s="46"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
